--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="135">
   <si>
     <t>database</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>LPG</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="F383" sqref="F383"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6857,9 +6860,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>42</v>
+    <row r="378" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="A378" sqref="A378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -344,15 +344,9 @@
     <t>gasoline, synthetic, vehicle grade</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>https://www.fvv-net.de/fileadmin/user_upload/medien/materialien/FVV-Kraftstoffstudie_LBST_2013-10-30.pdf</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>CO2 emission factor: 3.16 kg/kg fuel. Co-product of Methanol-to-diesel process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and kerosene, but optimized for diesel production. Allocation key for diesel: 37%. Carbon balance correction applied.</t>
   </si>
   <si>
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.114 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
   </si>
 </sst>
 </file>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="A378" sqref="A378"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1628,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -2536,7 +2536,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -3261,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -3346,7 +3346,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -3751,7 +3751,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -4140,7 +4140,7 @@
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -4179,7 +4179,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B184" s="4">
-        <v>2.2160000000000002</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -4221,7 +4221,7 @@
         <v>71</v>
       </c>
       <c r="H184" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
         <v>60</v>
       </c>
       <c r="B185" s="4">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
-        <v>4.0774400000000002E-2</v>
+        <v>4.3663200000000006E-2</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
-        <v>2.2160000000000003E-2</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -4306,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -4354,7 +4354,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -4362,7 +4362,7 @@
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -4401,7 +4401,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B200" s="4">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -4443,7 +4443,7 @@
         <v>71</v>
       </c>
       <c r="H200" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -4451,7 +4451,7 @@
         <v>62</v>
       </c>
       <c r="B201" s="4">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
-        <v>3.3120000000000004E-2</v>
+        <v>3.5511999999999995E-2</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -4623,7 +4623,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B216" s="4">
-        <v>2.2890000000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -4665,7 +4665,7 @@
         <v>71</v>
       </c>
       <c r="H216" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -4673,7 +4673,7 @@
         <v>60</v>
       </c>
       <c r="B217" s="4">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="D217" t="s">
         <v>10</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
-        <v>4.2117600000000005E-2</v>
+        <v>4.5098400000000004E-2</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
-        <v>2.2890000000000001E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -4750,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -4798,7 +4798,7 @@
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -4806,7 +4806,7 @@
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B232" s="4">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="C232" t="s">
         <v>4</v>
@@ -4887,7 +4887,7 @@
         <v>71</v>
       </c>
       <c r="H232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -4895,7 +4895,7 @@
         <v>60</v>
       </c>
       <c r="B233" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="D233" t="s">
         <v>10</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
-        <v>4.4159999999999998E-2</v>
+        <v>4.7287999999999997E-2</v>
       </c>
       <c r="C234" t="s">
         <v>4</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
-        <v>2.4E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="C235" t="s">
         <v>4</v>
@@ -5023,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -5031,7 +5031,7 @@
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -5094,10 +5094,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B249" s="4">
-        <v>2.2559999999999998</v>
+        <v>2.371</v>
       </c>
       <c r="C249" t="s">
         <v>4</v>
@@ -5112,7 +5112,7 @@
         <v>71</v>
       </c>
       <c r="H249" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>60</v>
       </c>
       <c r="B250" s="4">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="D250" t="s">
         <v>10</v>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
-        <v>4.1510399999999996E-2</v>
+        <v>4.3626399999999996E-2</v>
       </c>
       <c r="C251" t="s">
         <v>4</v>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
-        <v>2.2559999999999997E-2</v>
+        <v>2.3710000000000002E-2</v>
       </c>
       <c r="C252" t="s">
         <v>4</v>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -5245,7 +5245,7 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -5253,7 +5253,7 @@
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -5292,7 +5292,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B265" s="4">
-        <v>4.26</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C265" t="s">
         <v>4</v>
@@ -5334,7 +5334,7 @@
         <v>71</v>
       </c>
       <c r="H265" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -5342,7 +5342,7 @@
         <v>60</v>
       </c>
       <c r="B266" s="4">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="D266" t="s">
         <v>10</v>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
-        <v>7.8383999999999995E-2</v>
+        <v>8.3903999999999992E-2</v>
       </c>
       <c r="C267" t="s">
         <v>4</v>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
-        <v>4.2599999999999999E-2</v>
+        <v>4.5599999999999995E-2</v>
       </c>
       <c r="C268" t="s">
         <v>4</v>
@@ -5422,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -5478,7 +5478,7 @@
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -5517,7 +5517,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5541,10 +5541,10 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B282" s="4">
-        <v>2.36</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
@@ -5559,7 +5559,7 @@
         <v>71</v>
       </c>
       <c r="H282" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -5567,7 +5567,7 @@
         <v>60</v>
       </c>
       <c r="B283" s="4">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="D283" t="s">
         <v>10</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
-        <v>4.3423999999999997E-2</v>
+        <v>4.6644000000000005E-2</v>
       </c>
       <c r="C284" t="s">
         <v>4</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
-        <v>2.3599999999999999E-2</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="C285" t="s">
         <v>4</v>
@@ -5644,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -5692,7 +5692,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -5739,7 +5739,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B298" s="4">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="C298" t="s">
         <v>4</v>
@@ -5781,7 +5781,7 @@
         <v>71</v>
       </c>
       <c r="H298" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
         <v>62</v>
       </c>
       <c r="B299" s="4">
-        <v>0.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D299" t="s">
         <v>10</v>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
-        <v>3.0543999999999998E-2</v>
+        <v>3.2568E-2</v>
       </c>
       <c r="C300" t="s">
         <v>4</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
-        <v>1.66E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="C301" t="s">
         <v>4</v>
@@ -6703,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -6727,7 +6727,7 @@
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -6795,7 +6795,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6814,7 +6814,7 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -6862,7 +6862,7 @@
     </row>
     <row r="378" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6885,7 +6885,7 @@
         <v>40</v>
       </c>
       <c r="B379">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="C379" t="s">
         <v>4</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7014,10 +7014,10 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H384" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
   <si>
     <t>database</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>No steam heat here, as heat is recovered from CO2 compression.</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
   </si>
   <si>
     <t>Hydrogen, gaseous, 25 bar</t>
@@ -793,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -842,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -886,13 +883,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -927,12 +924,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -952,12 +949,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -977,18 +974,18 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -1002,18 +999,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -1027,12 +1024,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1052,18 +1049,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -1077,21 +1074,21 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -1102,7 +1099,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1113,7 +1110,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -1132,16 +1129,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1152,12 +1149,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1166,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1177,21 +1174,21 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -1202,7 +1199,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1223,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1247,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1291,13 +1288,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
         <v>81</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>82</v>
-      </c>
-      <c r="I31" t="s">
-        <v>83</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1308,7 +1305,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1332,12 +1329,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1357,12 +1354,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1382,18 +1379,18 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>10</v>
@@ -1407,18 +1404,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -1432,12 +1429,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1457,18 +1454,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1482,21 +1479,21 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -1507,7 +1504,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1518,7 +1515,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>10</v>
@@ -1537,16 +1534,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1557,12 +1554,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1571,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1582,21 +1579,21 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -1607,7 +1604,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1628,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1652,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1696,13 +1693,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
         <v>81</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>82</v>
-      </c>
-      <c r="I52" t="s">
-        <v>83</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1737,12 +1734,12 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -1762,12 +1759,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1787,18 +1784,18 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
@@ -1812,18 +1809,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>31</v>
@@ -1837,12 +1834,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1862,18 +1859,18 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
@@ -1887,21 +1884,21 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
@@ -1912,7 +1909,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1923,7 +1920,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>10</v>
@@ -1942,16 +1939,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -1962,12 +1959,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1976,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -1987,21 +1984,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -2012,7 +2009,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2033,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2057,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2101,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
         <v>81</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>82</v>
-      </c>
-      <c r="I73" t="s">
-        <v>83</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2118,7 +2115,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2142,12 +2139,12 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2167,12 +2164,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2192,18 +2189,18 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>10</v>
@@ -2217,18 +2214,18 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2242,12 +2239,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2267,18 +2264,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2292,21 +2289,21 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -2317,7 +2314,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -2328,7 +2325,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>10</v>
@@ -2347,16 +2344,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -2367,12 +2364,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2381,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -2392,21 +2389,21 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -2417,7 +2414,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -2451,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -2475,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -2519,13 +2516,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s">
         <v>81</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>82</v>
-      </c>
-      <c r="I95" t="s">
-        <v>83</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2536,7 +2533,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2560,12 +2557,12 @@
         <v>17</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2585,12 +2582,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2610,18 +2607,18 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>10</v>
@@ -2635,18 +2632,18 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -2660,12 +2657,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2685,18 +2682,18 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>10</v>
@@ -2710,21 +2707,21 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -2735,7 +2732,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -2746,7 +2743,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>10</v>
@@ -2765,16 +2762,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -2785,12 +2782,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2799,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -2810,21 +2807,21 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
@@ -2835,7 +2832,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -2856,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -2880,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -2924,13 +2921,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s">
         <v>81</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>82</v>
-      </c>
-      <c r="I116" t="s">
-        <v>83</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2965,12 +2962,12 @@
         <v>17</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -2990,12 +2987,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3015,18 +3012,18 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>10</v>
@@ -3040,18 +3037,18 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>31</v>
@@ -3065,12 +3062,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3090,18 +3087,18 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>10</v>
@@ -3115,21 +3112,21 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
@@ -3140,7 +3137,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -3151,7 +3148,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>10</v>
@@ -3170,16 +3167,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -3190,12 +3187,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3204,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -3215,21 +3212,21 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -3240,7 +3237,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -3261,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -3285,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -3329,13 +3326,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
+        <v>80</v>
+      </c>
+      <c r="H137" t="s">
         <v>81</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>82</v>
-      </c>
-      <c r="I137" t="s">
-        <v>83</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -3346,7 +3343,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3370,12 +3367,12 @@
         <v>17</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3395,12 +3392,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3420,18 +3417,18 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>10</v>
@@ -3445,18 +3442,18 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>31</v>
@@ -3470,12 +3467,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3495,18 +3492,18 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -3520,21 +3517,21 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
@@ -3545,7 +3542,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -3556,7 +3553,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>10</v>
@@ -3575,16 +3572,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -3595,12 +3592,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3609,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -3620,21 +3617,21 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
@@ -3645,7 +3642,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -3690,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -3734,13 +3731,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
         <v>81</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>82</v>
-      </c>
-      <c r="I158" t="s">
-        <v>83</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3751,7 +3748,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -3775,12 +3772,12 @@
         <v>17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -3800,12 +3797,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3825,18 +3822,18 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>10</v>
@@ -3850,18 +3847,18 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>31</v>
@@ -3875,12 +3872,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3900,18 +3897,18 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -3925,21 +3922,21 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3" t="s">
@@ -3950,7 +3947,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -3961,7 +3958,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>10</v>
@@ -3980,16 +3977,16 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -4000,12 +3997,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4014,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4025,21 +4022,21 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
@@ -4050,7 +4047,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -4084,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -4100,7 +4097,7 @@
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -4132,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -4140,7 +4137,7 @@
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -4179,7 +4176,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4195,15 +4192,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
@@ -4218,15 +4215,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H184" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4241,15 +4238,15 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
+        <v>71</v>
+      </c>
+      <c r="I185" t="s">
         <v>72</v>
-      </c>
-      <c r="I185" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
@@ -4265,15 +4262,15 @@
         <v>23</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4289,13 +4286,13 @@
         <v>23</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -4306,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -4322,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -4354,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -4362,7 +4359,7 @@
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -4401,7 +4398,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4417,15 +4414,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B200" s="4">
         <v>1.93</v>
@@ -4440,15 +4437,15 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H200" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4457,21 +4454,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
       </c>
       <c r="G201" t="s">
+        <v>71</v>
+      </c>
+      <c r="I201" t="s">
         <v>72</v>
-      </c>
-      <c r="I201" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
@@ -4487,15 +4484,15 @@
         <v>23</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H202" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4511,13 +4508,13 @@
         <v>23</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -4528,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -4544,7 +4541,7 @@
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -4576,7 +4573,7 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -4584,7 +4581,7 @@
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -4623,7 +4620,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4639,15 +4636,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B216" s="4">
         <v>2.4510000000000001</v>
@@ -4662,15 +4659,15 @@
         <v>23</v>
       </c>
       <c r="G216" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H216" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4685,15 +4682,15 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
+        <v>71</v>
+      </c>
+      <c r="I217" t="s">
         <v>72</v>
-      </c>
-      <c r="I217" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
@@ -4709,15 +4706,15 @@
         <v>23</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4733,13 +4730,13 @@
         <v>23</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -4750,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -4766,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -4798,7 +4795,7 @@
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -4806,7 +4803,7 @@
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -4845,7 +4842,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4861,15 +4858,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B232" s="4">
         <v>2.57</v>
@@ -4884,15 +4881,15 @@
         <v>23</v>
       </c>
       <c r="G232" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H232" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4907,15 +4904,15 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
+        <v>71</v>
+      </c>
+      <c r="I233" t="s">
         <v>72</v>
-      </c>
-      <c r="I233" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
@@ -4931,15 +4928,15 @@
         <v>23</v>
       </c>
       <c r="G234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -4955,13 +4952,13 @@
         <v>23</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -4975,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -4991,7 +4988,7 @@
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -5023,7 +5020,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -5031,7 +5028,7 @@
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -5070,7 +5067,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -5086,15 +5083,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B249" s="4">
         <v>2.371</v>
@@ -5109,15 +5106,15 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H249" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5132,15 +5129,15 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
+        <v>71</v>
+      </c>
+      <c r="I250" t="s">
         <v>72</v>
-      </c>
-      <c r="I250" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
@@ -5156,15 +5153,15 @@
         <v>23</v>
       </c>
       <c r="G251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5180,13 +5177,13 @@
         <v>23</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -5197,7 +5194,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -5213,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -5245,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -5253,7 +5250,7 @@
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -5292,7 +5289,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5308,15 +5305,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B265" s="4">
         <v>4.5599999999999996</v>
@@ -5331,15 +5328,15 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H265" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5354,15 +5351,15 @@
         <v>20</v>
       </c>
       <c r="G266" t="s">
+        <v>71</v>
+      </c>
+      <c r="I266" t="s">
         <v>72</v>
-      </c>
-      <c r="I266" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
@@ -5378,15 +5375,15 @@
         <v>23</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5402,13 +5399,13 @@
         <v>23</v>
       </c>
       <c r="G268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -5422,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -5438,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -5470,7 +5467,7 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -5478,7 +5475,7 @@
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -5517,7 +5514,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5533,15 +5530,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B282" s="4">
         <v>2.5350000000000001</v>
@@ -5556,15 +5553,15 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H282" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5579,15 +5576,15 @@
         <v>20</v>
       </c>
       <c r="G283" t="s">
+        <v>71</v>
+      </c>
+      <c r="I283" t="s">
         <v>72</v>
-      </c>
-      <c r="I283" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
@@ -5603,15 +5600,15 @@
         <v>23</v>
       </c>
       <c r="G284" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H284" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5627,13 +5624,13 @@
         <v>23</v>
       </c>
       <c r="G285" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -5644,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -5692,7 +5689,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -5700,7 +5697,7 @@
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -5739,7 +5736,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5755,15 +5752,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B298" s="4">
         <v>1.77</v>
@@ -5778,15 +5775,15 @@
         <v>23</v>
       </c>
       <c r="G298" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H298" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5795,21 +5792,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
       </c>
       <c r="G299" t="s">
+        <v>71</v>
+      </c>
+      <c r="I299" t="s">
         <v>72</v>
-      </c>
-      <c r="I299" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
@@ -5825,15 +5822,15 @@
         <v>23</v>
       </c>
       <c r="G300" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H300" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5849,13 +5846,13 @@
         <v>23</v>
       </c>
       <c r="G301" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -5922,12 +5919,12 @@
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B311">
         <v>0.2</v>
@@ -6007,12 +6004,12 @@
         <v>20</v>
       </c>
       <c r="G315" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6028,12 +6025,12 @@
         <v>20</v>
       </c>
       <c r="G316" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6043,13 +6040,13 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
       </c>
       <c r="G317" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -6061,7 +6058,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C318" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>10</v>
@@ -6216,12 +6213,12 @@
         <v>15</v>
       </c>
       <c r="B331" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B332">
         <v>0.2</v>
@@ -6229,7 +6226,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6309,12 +6306,12 @@
         <v>20</v>
       </c>
       <c r="G337" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6330,12 +6327,12 @@
         <v>20</v>
       </c>
       <c r="G338" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6345,13 +6342,13 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
       </c>
       <c r="G339" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -6363,7 +6360,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C340" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>10</v>
@@ -6498,12 +6495,12 @@
         <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B353">
         <v>0.2</v>
@@ -6511,7 +6508,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6590,12 +6587,12 @@
         <v>20</v>
       </c>
       <c r="G358" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6611,12 +6608,12 @@
         <v>20</v>
       </c>
       <c r="G359" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6626,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
       </c>
       <c r="G360" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -6703,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -6727,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -6759,7 +6756,7 @@
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -6795,7 +6792,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6814,7 +6811,7 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -6862,7 +6859,7 @@
     </row>
     <row r="378" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6876,8 +6873,8 @@
       <c r="F378" t="s">
         <v>23</v>
       </c>
-      <c r="H378" t="s">
-        <v>43</v>
+      <c r="H378" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -6902,7 +6899,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B380" s="5">
         <f>156000*0.24/(1546000*365*3)</f>
@@ -6918,15 +6915,15 @@
         <v>23</v>
       </c>
       <c r="G380" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H380" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B381" s="5">
         <f>156000*0.64/(1546000*365*3)</f>
@@ -6942,64 +6939,64 @@
         <v>23</v>
       </c>
       <c r="G381" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H381" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B382" s="5">
         <f>156000*0.12/(1546000*365*3)</f>
         <v>1.1058143862198514E-5</v>
       </c>
       <c r="C382" t="s">
+        <v>49</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382" t="s">
+        <v>23</v>
+      </c>
+      <c r="G382" t="s">
+        <v>53</v>
+      </c>
+      <c r="H382" t="s">
         <v>50</v>
-      </c>
-      <c r="D382" t="s">
-        <v>10</v>
-      </c>
-      <c r="F382" t="s">
-        <v>23</v>
-      </c>
-      <c r="G382" t="s">
-        <v>54</v>
-      </c>
-      <c r="H382" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B383" s="6">
         <f>0.568*-1/1000</f>
         <v>-5.6799999999999993E-4</v>
       </c>
       <c r="C383" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D383" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E383" s="3"/>
       <c r="F383" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7014,10 +7011,10 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
+        <v>129</v>
+      </c>
+      <c r="H384" t="s">
         <v>130</v>
-      </c>
-      <c r="H384" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,18 +203,9 @@
     <t>Added treatment of co-produced water, but in theory, this water should be very pure.</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>!!! The share of fossil and biogenic CO2 in the incoming CO2 need to specified in the CO2 leakage here. 0.11 kg of CO2 overall is leaked per kg captured.</t>
   </si>
   <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>!!! The share of biogenic CO2 stored is synonymous with net negative emission.</t>
   </si>
   <si>
@@ -426,6 +417,15 @@
   </si>
   <si>
     <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -790,19 +790,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,15 +810,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -834,15 +834,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -858,12 +858,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -883,13 +883,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -898,9 +898,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -924,12 +924,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -949,12 +949,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -974,12 +974,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -999,18 +999,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -1024,12 +1024,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1049,18 +1049,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -1074,12 +1074,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1099,10 +1099,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1127,9 +1127,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1138,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1149,12 +1149,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1163,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1174,10 +1174,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1215,15 +1215,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1239,15 +1239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1263,12 +1263,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1288,13 +1288,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1303,9 +1303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1329,12 +1329,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1354,12 +1354,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1379,12 +1379,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1404,18 +1404,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -1429,12 +1429,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1454,18 +1454,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1479,12 +1479,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1504,10 +1504,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1532,9 +1532,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1543,7 +1543,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1554,12 +1554,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1579,10 +1579,10 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1620,15 +1620,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1644,15 +1644,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1668,12 +1668,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1693,13 +1693,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1708,9 +1708,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1734,12 +1734,12 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -1759,12 +1759,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1784,12 +1784,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1809,18 +1809,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>31</v>
@@ -1834,12 +1834,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1859,18 +1859,18 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
@@ -1884,12 +1884,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1909,10 +1909,10 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -1937,9 +1937,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1948,7 +1948,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -1959,12 +1959,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -1984,10 +1984,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -2025,15 +2025,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2049,15 +2049,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2073,12 +2073,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2098,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2113,9 +2113,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2139,12 +2139,12 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2164,12 +2164,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2189,12 +2189,12 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2214,18 +2214,18 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2239,12 +2239,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2264,18 +2264,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2289,12 +2289,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2314,10 +2314,10 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
@@ -2342,9 +2342,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2353,7 +2353,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -2364,12 +2364,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -2389,10 +2389,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -2430,7 +2430,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -2443,15 +2443,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2467,15 +2467,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2491,12 +2491,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2516,13 +2516,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I95" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2531,9 +2531,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2557,12 +2557,12 @@
         <v>17</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2582,12 +2582,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2607,12 +2607,12 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2632,18 +2632,18 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -2657,12 +2657,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2682,18 +2682,18 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>10</v>
@@ -2707,12 +2707,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2732,10 +2732,10 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
@@ -2760,9 +2760,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2771,7 +2771,7 @@
         <v>55</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -2782,12 +2782,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2796,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -2807,10 +2807,10 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -2848,15 +2848,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2872,15 +2872,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2896,12 +2896,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2921,13 +2921,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2936,9 +2936,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2962,12 +2962,12 @@
         <v>17</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -2987,12 +2987,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3012,12 +3012,12 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3037,18 +3037,18 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>31</v>
@@ -3062,12 +3062,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3087,18 +3087,18 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>10</v>
@@ -3112,12 +3112,12 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3137,10 +3137,10 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>22</v>
       </c>
@@ -3165,9 +3165,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3176,7 +3176,7 @@
         <v>55</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -3187,12 +3187,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -3212,10 +3212,10 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -3253,15 +3253,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3277,15 +3277,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3301,12 +3301,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3326,13 +3326,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H137" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I137" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -3341,9 +3341,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3367,12 +3367,12 @@
         <v>17</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3392,12 +3392,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3417,12 +3417,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3442,18 +3442,18 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>31</v>
@@ -3467,12 +3467,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3492,18 +3492,18 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -3517,12 +3517,12 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3542,10 +3542,10 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>22</v>
       </c>
@@ -3570,9 +3570,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3581,7 +3581,7 @@
         <v>55</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -3592,12 +3592,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3606,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -3617,10 +3617,10 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>54</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -3658,15 +3658,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3682,15 +3682,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3706,12 +3706,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3731,13 +3731,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H158" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I158" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3746,9 +3746,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -3772,12 +3772,12 @@
         <v>17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -3797,12 +3797,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3822,12 +3822,12 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3847,18 +3847,18 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>31</v>
@@ -3872,12 +3872,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3897,18 +3897,18 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -3922,12 +3922,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3947,10 +3947,10 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>22</v>
       </c>
@@ -3975,9 +3975,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3986,7 +3986,7 @@
         <v>55</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -3997,12 +3997,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4011,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4022,10 +4022,10 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>54</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -4063,7 +4063,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -4076,15 +4076,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4092,15 +4092,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -4124,28 +4124,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>12</v>
       </c>
@@ -4174,9 +4174,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4192,15 +4192,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
@@ -4215,15 +4215,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H184" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4238,15 +4238,15 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I185" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
@@ -4265,12 +4265,12 @@
         <v>45</v>
       </c>
       <c r="H186" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4292,21 +4292,21 @@
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4314,15 +4314,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4346,28 +4346,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>12</v>
       </c>
@@ -4396,9 +4396,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4414,15 +4414,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B200" s="4">
         <v>1.93</v>
@@ -4437,15 +4437,15 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H200" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4454,21 +4454,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
       </c>
       <c r="G201" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I201" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
@@ -4487,12 +4487,12 @@
         <v>45</v>
       </c>
       <c r="H202" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4514,21 +4514,21 @@
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4536,15 +4536,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4568,28 +4568,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>12</v>
       </c>
@@ -4618,9 +4618,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4636,15 +4636,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B216" s="4">
         <v>2.4510000000000001</v>
@@ -4659,15 +4659,15 @@
         <v>23</v>
       </c>
       <c r="G216" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H216" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4682,15 +4682,15 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I217" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
@@ -4709,12 +4709,12 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4736,21 +4736,21 @@
         <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4758,15 +4758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4790,28 +4790,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>12</v>
       </c>
@@ -4840,9 +4840,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4858,15 +4858,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B232" s="4">
         <v>2.57</v>
@@ -4881,15 +4881,15 @@
         <v>23</v>
       </c>
       <c r="G232" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H232" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4904,15 +4904,15 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I233" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
@@ -4931,12 +4931,12 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -4958,24 +4958,24 @@
         <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4983,15 +4983,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -5015,28 +5015,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>12</v>
       </c>
@@ -5065,9 +5065,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -5083,15 +5083,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B249" s="4">
         <v>2.371</v>
@@ -5106,15 +5106,15 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H249" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5129,15 +5129,15 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I250" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
@@ -5156,12 +5156,12 @@
         <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5183,21 +5183,21 @@
         <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5205,15 +5205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -5237,28 +5237,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>12</v>
       </c>
@@ -5287,9 +5287,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5305,15 +5305,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B265" s="4">
         <v>4.5599999999999996</v>
@@ -5328,15 +5328,15 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H265" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5351,15 +5351,15 @@
         <v>20</v>
       </c>
       <c r="G266" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I266" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
@@ -5378,12 +5378,12 @@
         <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5405,24 +5405,24 @@
         <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5430,15 +5430,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -5462,28 +5462,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>12</v>
       </c>
@@ -5512,9 +5512,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5530,15 +5530,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B282" s="4">
         <v>2.5350000000000001</v>
@@ -5553,15 +5553,15 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H282" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5576,15 +5576,15 @@
         <v>20</v>
       </c>
       <c r="G283" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I283" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
@@ -5603,12 +5603,12 @@
         <v>45</v>
       </c>
       <c r="H284" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5630,21 +5630,21 @@
         <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5652,15 +5652,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5684,28 +5684,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>12</v>
       </c>
@@ -5734,9 +5734,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5752,15 +5752,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B298" s="4">
         <v>1.77</v>
@@ -5775,15 +5775,15 @@
         <v>23</v>
       </c>
       <c r="G298" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H298" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5792,21 +5792,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
       </c>
       <c r="G299" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I299" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
@@ -5825,12 +5825,12 @@
         <v>45</v>
       </c>
       <c r="H300" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5852,13 +5852,13 @@
         <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -5914,28 +5914,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>15</v>
       </c>
       <c r="B310" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>67</v>
       </c>
       <c r="B311">
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -6004,12 +6004,12 @@
         <v>20</v>
       </c>
       <c r="G315" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6025,12 +6025,12 @@
         <v>20</v>
       </c>
       <c r="G316" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6040,16 +6040,16 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
       </c>
       <c r="G317" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>33</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -6208,36 +6208,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
       <c r="B331" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B332">
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>38</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -6306,12 +6306,12 @@
         <v>20</v>
       </c>
       <c r="G337" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6327,12 +6327,12 @@
         <v>20</v>
       </c>
       <c r="G338" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6342,16 +6342,16 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
       </c>
       <c r="G339" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>33</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -6490,36 +6490,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B353">
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>40</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -6587,12 +6587,12 @@
         <v>20</v>
       </c>
       <c r="G358" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6608,12 +6608,12 @@
         <v>20</v>
       </c>
       <c r="G359" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6623,16 +6623,16 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
       </c>
       <c r="G360" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>33</v>
       </c>
@@ -6695,15 +6695,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6719,15 +6719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -6751,20 +6751,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6790,9 +6790,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6811,10 +6811,10 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -6857,9 +6857,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6877,7 +6877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>40</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>46</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>54</v>
       </c>
@@ -6994,9 +6994,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7011,26 +7011,26 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H384" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B387" s="3"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -7041,55 +7041,55 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="7"/>
       <c r="F395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B407" s="3"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -7100,55 +7100,55 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="7"/>
       <c r="F415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B427" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -7159,55 +7159,55 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="7"/>
       <c r="F435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B447" s="3"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -7218,36 +7218,36 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="7"/>
       <c r="F455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B463" s="4"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F41120E-B986-B64E-8715-DDE34F8BD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="33340" yWindow="11000" windowWidth="32680" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="132">
   <si>
     <t>database</t>
   </si>
@@ -224,9 +235,6 @@
     <t>credit allocation to fuel producer</t>
   </si>
   <si>
-    <t>Gasoline, synthetic</t>
-  </si>
-  <si>
     <t>Methanol-based fuels</t>
   </si>
   <si>
@@ -405,9 +413,6 @@
   </si>
   <si>
     <t>methanol production facility, construction</t>
-  </si>
-  <si>
-    <t>LPG</t>
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
@@ -431,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -787,22 +792,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="G378" sqref="G378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,15 +815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -826,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -834,15 +839,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -850,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -858,12 +863,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -883,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -898,9 +903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -924,12 +929,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -949,12 +954,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -974,12 +979,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -999,18 +1004,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -1024,12 +1029,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1049,18 +1054,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -1074,12 +1079,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1099,10 +1104,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1127,9 +1132,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1138,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1149,12 +1154,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1163,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1174,10 +1179,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1215,15 +1220,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1239,15 +1244,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1263,12 +1268,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1288,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>79</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1303,9 +1308,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1329,12 +1334,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1354,12 +1359,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1379,12 +1384,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1404,18 +1409,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -1429,12 +1434,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1454,18 +1459,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1479,12 +1484,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1504,10 +1509,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1532,9 +1537,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1543,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1554,12 +1559,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1568,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1579,10 +1584,10 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1620,15 +1625,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1644,15 +1649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1668,12 +1673,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1693,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
         <v>77</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>78</v>
-      </c>
-      <c r="I52" t="s">
-        <v>79</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1708,9 +1713,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1734,12 +1739,12 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -1759,12 +1764,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1784,12 +1789,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1809,18 +1814,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>31</v>
@@ -1834,12 +1839,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1859,18 +1864,18 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
@@ -1884,12 +1889,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1909,10 +1914,10 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -1937,9 +1942,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1948,7 +1953,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -1959,12 +1964,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1973,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -1984,10 +1989,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -2025,15 +2030,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2049,15 +2054,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2073,12 +2078,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2098,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
         <v>77</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>78</v>
-      </c>
-      <c r="I73" t="s">
-        <v>79</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2113,9 +2118,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2139,12 +2144,12 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2164,12 +2169,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2189,12 +2194,12 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2214,18 +2219,18 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2239,12 +2244,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2264,18 +2269,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2289,12 +2294,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2314,10 +2319,10 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
@@ -2342,9 +2347,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2353,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -2364,12 +2369,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2378,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -2389,10 +2394,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -2430,7 +2435,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -2443,15 +2448,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2467,15 +2472,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2491,12 +2496,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2516,13 +2521,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
         <v>77</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>78</v>
-      </c>
-      <c r="I95" t="s">
-        <v>79</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2531,9 +2536,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2557,12 +2562,12 @@
         <v>17</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2582,12 +2587,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2607,12 +2612,12 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2632,18 +2637,18 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -2657,12 +2662,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2682,18 +2687,18 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>10</v>
@@ -2707,12 +2712,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2732,10 +2737,10 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
@@ -2760,9 +2765,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2771,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -2782,12 +2787,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2796,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -2807,10 +2812,10 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -2848,15 +2853,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2872,15 +2877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2896,12 +2901,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2921,13 +2926,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
         <v>77</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>78</v>
-      </c>
-      <c r="I116" t="s">
-        <v>79</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2936,9 +2941,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2962,12 +2967,12 @@
         <v>17</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -2987,12 +2992,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3012,12 +3017,12 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3037,18 +3042,18 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>31</v>
@@ -3062,12 +3067,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3087,18 +3092,18 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>10</v>
@@ -3112,12 +3117,12 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3137,10 +3142,10 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>22</v>
       </c>
@@ -3165,9 +3170,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3176,7 +3181,7 @@
         <v>55</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -3187,12 +3192,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3201,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -3212,10 +3217,10 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -3253,15 +3258,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3277,15 +3282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3301,12 +3306,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3326,13 +3331,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
         <v>77</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>78</v>
-      </c>
-      <c r="I137" t="s">
-        <v>79</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -3341,9 +3346,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3367,12 +3372,12 @@
         <v>17</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3392,12 +3397,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3417,12 +3422,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3442,18 +3447,18 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>31</v>
@@ -3467,12 +3472,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3492,18 +3497,18 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -3517,12 +3522,12 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3542,10 +3547,10 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>22</v>
       </c>
@@ -3570,9 +3575,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3581,7 +3586,7 @@
         <v>55</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -3592,12 +3597,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3606,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -3617,10 +3622,10 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>54</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -3658,15 +3663,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3682,15 +3687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3706,12 +3711,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3731,13 +3736,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
         <v>77</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>78</v>
-      </c>
-      <c r="I158" t="s">
-        <v>79</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3746,9 +3751,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -3772,12 +3777,12 @@
         <v>17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -3797,12 +3802,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3822,12 +3827,12 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3847,18 +3852,18 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>31</v>
@@ -3872,12 +3877,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3897,18 +3902,18 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -3922,12 +3927,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3947,10 +3952,10 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>22</v>
       </c>
@@ -3975,9 +3980,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3986,7 +3991,7 @@
         <v>55</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -3997,12 +4002,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4011,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4022,10 +4027,10 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>54</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -4063,7 +4068,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -4076,15 +4081,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4092,15 +4097,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -4124,28 +4129,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>12</v>
       </c>
@@ -4174,9 +4179,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4192,15 +4197,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
@@ -4215,15 +4220,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H184" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4238,15 +4243,15 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
+        <v>67</v>
+      </c>
+      <c r="I185" t="s">
         <v>68</v>
       </c>
-      <c r="I185" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>70</v>
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
@@ -4265,12 +4270,12 @@
         <v>45</v>
       </c>
       <c r="H186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4292,21 +4297,21 @@
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4314,15 +4319,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4346,28 +4351,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>12</v>
       </c>
@@ -4396,9 +4401,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4414,15 +4419,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B200" s="4">
         <v>1.93</v>
@@ -4437,15 +4442,15 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H200" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4454,21 +4459,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
       </c>
       <c r="G201" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201" t="s">
         <v>68</v>
       </c>
-      <c r="I201" t="s">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>70</v>
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
@@ -4487,12 +4492,12 @@
         <v>45</v>
       </c>
       <c r="H202" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4514,21 +4519,21 @@
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4536,15 +4541,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4568,28 +4573,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>12</v>
       </c>
@@ -4618,9 +4623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4636,15 +4641,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B216" s="4">
         <v>2.4510000000000001</v>
@@ -4659,15 +4664,15 @@
         <v>23</v>
       </c>
       <c r="G216" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H216" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4682,15 +4687,15 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
+        <v>67</v>
+      </c>
+      <c r="I217" t="s">
         <v>68</v>
       </c>
-      <c r="I217" t="s">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>70</v>
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
@@ -4709,12 +4714,12 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4736,21 +4741,21 @@
         <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4758,15 +4763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4790,28 +4795,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>12</v>
       </c>
@@ -4840,9 +4845,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4858,15 +4863,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B232" s="4">
         <v>2.57</v>
@@ -4881,15 +4886,15 @@
         <v>23</v>
       </c>
       <c r="G232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H232" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4904,15 +4909,15 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
+        <v>67</v>
+      </c>
+      <c r="I233" t="s">
         <v>68</v>
       </c>
-      <c r="I233" t="s">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>70</v>
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
@@ -4931,12 +4936,12 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -4958,24 +4963,24 @@
         <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4983,15 +4988,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -5015,28 +5020,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>12</v>
       </c>
@@ -5065,9 +5070,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -5083,15 +5088,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B249" s="4">
         <v>2.371</v>
@@ -5106,15 +5111,15 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H249" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5129,15 +5134,15 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
+        <v>67</v>
+      </c>
+      <c r="I250" t="s">
         <v>68</v>
       </c>
-      <c r="I250" t="s">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>70</v>
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
@@ -5156,12 +5161,12 @@
         <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5183,21 +5188,21 @@
         <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5205,15 +5210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -5237,28 +5242,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>12</v>
       </c>
@@ -5287,9 +5292,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5305,15 +5310,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B265" s="4">
         <v>4.5599999999999996</v>
@@ -5328,15 +5333,15 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H265" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5351,15 +5356,15 @@
         <v>20</v>
       </c>
       <c r="G266" t="s">
+        <v>67</v>
+      </c>
+      <c r="I266" t="s">
         <v>68</v>
       </c>
-      <c r="I266" t="s">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>70</v>
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
@@ -5378,12 +5383,12 @@
         <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5405,24 +5410,24 @@
         <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5430,15 +5435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -5462,28 +5467,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>12</v>
       </c>
@@ -5512,9 +5517,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5530,15 +5535,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B282" s="4">
         <v>2.5350000000000001</v>
@@ -5553,15 +5558,15 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H282" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5576,15 +5581,15 @@
         <v>20</v>
       </c>
       <c r="G283" t="s">
+        <v>67</v>
+      </c>
+      <c r="I283" t="s">
         <v>68</v>
       </c>
-      <c r="I283" t="s">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>70</v>
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
@@ -5603,12 +5608,12 @@
         <v>45</v>
       </c>
       <c r="H284" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5630,21 +5635,21 @@
         <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5652,15 +5657,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +5673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5676,7 +5681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5684,28 +5689,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>12</v>
       </c>
@@ -5734,9 +5739,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5752,15 +5757,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B298" s="4">
         <v>1.77</v>
@@ -5775,15 +5780,15 @@
         <v>23</v>
       </c>
       <c r="G298" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H298" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5792,21 +5797,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
       </c>
       <c r="G299" t="s">
+        <v>67</v>
+      </c>
+      <c r="I299" t="s">
         <v>68</v>
       </c>
-      <c r="I299" t="s">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>70</v>
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
@@ -5825,12 +5830,12 @@
         <v>45</v>
       </c>
       <c r="H300" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5852,13 +5857,13 @@
         <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>64</v>
       </c>
@@ -5930,12 +5935,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +5991,7 @@
       </c>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -6007,9 +6012,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6028,9 +6033,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6040,7 +6045,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -6049,7 +6054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -6070,7 +6075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>33</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6176,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -6184,7 +6189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>64</v>
       </c>
@@ -6224,7 +6229,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -6232,12 +6237,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6263,7 +6268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>38</v>
       </c>
@@ -6288,7 +6293,7 @@
       </c>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -6309,9 +6314,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6330,9 +6335,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6342,7 +6347,7 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
@@ -6351,7 +6356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -6372,7 +6377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -6413,7 +6418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>33</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -6482,7 +6487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -6490,7 +6495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>64</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>65</v>
       </c>
@@ -6514,12 +6519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>40</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -6590,9 +6595,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6611,9 +6616,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6623,7 +6628,7 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
@@ -6632,7 +6637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>33</v>
       </c>
@@ -6695,15 +6700,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6719,15 +6724,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +6740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6743,7 +6748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -6751,20 +6756,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6790,9 +6795,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6811,10 +6816,10 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -6857,9 +6862,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6877,7 +6882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>40</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>46</v>
       </c>
@@ -6945,7 +6950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>54</v>
       </c>
@@ -6994,9 +6999,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7011,26 +7016,26 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H384" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B387" s="3"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -7041,55 +7046,55 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="7"/>
       <c r="F395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B407" s="3"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -7100,55 +7105,55 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="7"/>
       <c r="F415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B427" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -7159,55 +7164,55 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="7"/>
       <c r="F435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B447" s="3"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -7218,48 +7223,48 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="7"/>
       <c r="F455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1"/>
-    <hyperlink ref="B278" r:id="rId2"/>
-    <hyperlink ref="B261" r:id="rId3"/>
-    <hyperlink ref="B245" r:id="rId4"/>
-    <hyperlink ref="B228" r:id="rId5"/>
-    <hyperlink ref="B212" r:id="rId6"/>
-    <hyperlink ref="B196" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B261" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B245" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B228" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B212" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,41 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F41120E-B986-B64E-8715-DDE34F8BD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="11000" windowWidth="32680" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
   <si>
     <t>database</t>
   </si>
@@ -235,6 +224,9 @@
     <t>credit allocation to fuel producer</t>
   </si>
   <si>
+    <t>Gasoline, synthetic</t>
+  </si>
+  <si>
     <t>Methanol-based fuels</t>
   </si>
   <si>
@@ -413,6 +405,9 @@
   </si>
   <si>
     <t>methanol production facility, construction</t>
+  </si>
+  <si>
+    <t>LPG</t>
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
@@ -436,7 +431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -792,22 +787,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="G378" sqref="G378"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,15 +810,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -831,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -839,15 +834,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -855,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -863,12 +858,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -888,13 +883,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -903,9 +898,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -929,12 +924,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -954,12 +949,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -979,12 +974,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1004,18 +999,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -1029,12 +1024,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1054,18 +1049,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -1079,12 +1074,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1104,10 +1099,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1132,9 +1127,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1143,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1154,12 +1149,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1168,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1179,10 +1174,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1207,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1220,15 +1215,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1244,15 +1239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1268,12 +1263,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1293,13 +1288,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1308,9 +1303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1334,12 +1329,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1359,12 +1354,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1384,12 +1379,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1409,18 +1404,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -1434,12 +1429,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1459,18 +1454,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1484,12 +1479,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1509,10 +1504,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1537,9 +1532,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1548,7 +1543,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1559,12 +1554,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1573,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1584,10 +1579,10 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1625,15 +1620,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1649,15 +1644,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1673,12 +1668,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1698,13 +1693,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1713,9 +1708,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1739,12 +1734,12 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -1764,12 +1759,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1789,12 +1784,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1814,18 +1809,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>31</v>
@@ -1839,12 +1834,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1864,18 +1859,18 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
@@ -1889,12 +1884,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1914,10 +1909,10 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -1942,9 +1937,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1953,7 +1948,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -1964,12 +1959,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1978,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -1989,10 +1984,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2017,7 +2012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -2030,15 +2025,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2054,15 +2049,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2078,12 +2073,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2103,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2118,9 +2113,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2144,12 +2139,12 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2169,12 +2164,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2194,12 +2189,12 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2219,18 +2214,18 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2244,12 +2239,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2269,18 +2264,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2294,12 +2289,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2319,10 +2314,10 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
@@ -2347,9 +2342,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2358,7 +2353,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -2369,12 +2364,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2383,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -2394,10 +2389,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -2422,7 +2417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -2435,7 +2430,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -2448,15 +2443,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2472,15 +2467,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2496,12 +2491,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2521,13 +2516,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I95" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2536,9 +2531,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2562,12 +2557,12 @@
         <v>17</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2587,12 +2582,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2612,12 +2607,12 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2637,18 +2632,18 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -2662,12 +2657,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2687,18 +2682,18 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>10</v>
@@ -2712,12 +2707,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2737,10 +2732,10 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
@@ -2765,9 +2760,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2776,7 +2771,7 @@
         <v>55</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -2787,12 +2782,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2801,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -2812,10 +2807,10 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>54</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -2853,15 +2848,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2877,15 +2872,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2893,7 +2888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2901,12 +2896,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2926,13 +2921,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2941,9 +2936,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2967,12 +2962,12 @@
         <v>17</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -2992,12 +2987,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3017,12 +3012,12 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3042,18 +3037,18 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>31</v>
@@ -3067,12 +3062,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3092,18 +3087,18 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>10</v>
@@ -3117,12 +3112,12 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3142,10 +3137,10 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>22</v>
       </c>
@@ -3170,9 +3165,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3181,7 +3176,7 @@
         <v>55</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -3192,12 +3187,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3206,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -3217,10 +3212,10 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -3245,7 +3240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -3258,15 +3253,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3282,15 +3277,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3306,12 +3301,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3331,13 +3326,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H137" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -3346,9 +3341,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3372,12 +3367,12 @@
         <v>17</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3397,12 +3392,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3422,12 +3417,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3447,18 +3442,18 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>31</v>
@@ -3472,12 +3467,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3497,18 +3492,18 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -3522,12 +3517,12 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3547,10 +3542,10 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>22</v>
       </c>
@@ -3575,9 +3570,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3586,7 +3581,7 @@
         <v>55</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -3597,12 +3592,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3611,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -3622,10 +3617,10 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>54</v>
       </c>
@@ -3650,7 +3645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -3663,15 +3658,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3679,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3687,15 +3682,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3703,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3711,12 +3706,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3736,13 +3731,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H158" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I158" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3751,9 +3746,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -3777,12 +3772,12 @@
         <v>17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -3802,12 +3797,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3827,12 +3822,12 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3852,18 +3847,18 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>31</v>
@@ -3877,12 +3872,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3902,18 +3897,18 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -3927,12 +3922,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3952,10 +3947,10 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>22</v>
       </c>
@@ -3980,9 +3975,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3991,7 +3986,7 @@
         <v>55</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -4002,12 +3997,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4016,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4027,10 +4022,10 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>54</v>
       </c>
@@ -4055,7 +4050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -4068,7 +4063,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -4081,15 +4076,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4097,15 +4092,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -4129,28 +4124,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>12</v>
       </c>
@@ -4179,9 +4174,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4197,15 +4192,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
@@ -4220,15 +4215,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H184" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4243,15 +4238,15 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I185" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
@@ -4270,12 +4265,12 @@
         <v>45</v>
       </c>
       <c r="H186" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4297,21 +4292,21 @@
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4319,15 +4314,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4335,7 +4330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4343,7 +4338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4351,28 +4346,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>12</v>
       </c>
@@ -4401,9 +4396,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4419,15 +4414,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B200" s="4">
         <v>1.93</v>
@@ -4442,15 +4437,15 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H200" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4459,21 +4454,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
       </c>
       <c r="G201" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I201" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
@@ -4492,12 +4487,12 @@
         <v>45</v>
       </c>
       <c r="H202" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4519,21 +4514,21 @@
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4541,15 +4536,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4557,7 +4552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4565,7 +4560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4573,28 +4568,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>12</v>
       </c>
@@ -4623,9 +4618,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4641,15 +4636,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B216" s="4">
         <v>2.4510000000000001</v>
@@ -4664,15 +4659,15 @@
         <v>23</v>
       </c>
       <c r="G216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H216" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4687,15 +4682,15 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I217" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
@@ -4714,12 +4709,12 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4741,21 +4736,21 @@
         <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4763,15 +4758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4787,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4795,28 +4790,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>12</v>
       </c>
@@ -4845,9 +4840,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4863,15 +4858,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B232" s="4">
         <v>2.57</v>
@@ -4886,15 +4881,15 @@
         <v>23</v>
       </c>
       <c r="G232" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H232" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4909,15 +4904,15 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I233" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
@@ -4936,12 +4931,12 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -4963,24 +4958,24 @@
         <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4988,15 +4983,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -5012,7 +5007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -5020,28 +5015,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>12</v>
       </c>
@@ -5070,9 +5065,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -5088,15 +5083,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B249" s="4">
         <v>2.371</v>
@@ -5111,15 +5106,15 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H249" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5134,15 +5129,15 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I250" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
@@ -5161,12 +5156,12 @@
         <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5188,21 +5183,21 @@
         <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5210,15 +5205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5226,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -5234,7 +5229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -5242,28 +5237,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>12</v>
       </c>
@@ -5292,9 +5287,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5310,15 +5305,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B265" s="4">
         <v>4.5599999999999996</v>
@@ -5333,15 +5328,15 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H265" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5356,15 +5351,15 @@
         <v>20</v>
       </c>
       <c r="G266" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I266" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
@@ -5383,12 +5378,12 @@
         <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5410,24 +5405,24 @@
         <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5435,15 +5430,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5451,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -5459,7 +5454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -5467,28 +5462,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>12</v>
       </c>
@@ -5517,9 +5512,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5535,15 +5530,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B282" s="4">
         <v>2.5350000000000001</v>
@@ -5558,15 +5553,15 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H282" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5581,15 +5576,15 @@
         <v>20</v>
       </c>
       <c r="G283" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I283" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
@@ -5608,12 +5603,12 @@
         <v>45</v>
       </c>
       <c r="H284" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5635,21 +5630,21 @@
         <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5657,15 +5652,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5689,28 +5684,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>12</v>
       </c>
@@ -5739,9 +5734,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5757,15 +5752,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B298" s="4">
         <v>1.77</v>
@@ -5780,15 +5775,15 @@
         <v>23</v>
       </c>
       <c r="G298" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H298" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5797,21 +5792,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
       </c>
       <c r="G299" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I299" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
@@ -5830,12 +5825,12 @@
         <v>45</v>
       </c>
       <c r="H300" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5857,13 +5852,13 @@
         <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -5871,7 +5866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5879,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5887,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5895,7 +5890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5903,7 +5898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5911,7 +5906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +5914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5927,7 +5922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>64</v>
       </c>
@@ -5935,12 +5930,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5966,7 +5961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>36</v>
       </c>
@@ -5991,7 +5986,7 @@
       </c>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -6012,9 +6007,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6033,9 +6028,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6045,7 +6040,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -6054,7 +6049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -6075,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -6096,7 +6091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -6116,7 +6111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -6136,7 +6131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>33</v>
       </c>
@@ -6157,7 +6152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -6165,7 +6160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -6173,7 +6168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6181,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -6189,7 +6184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6197,7 +6192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -6213,7 +6208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -6221,7 +6216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>64</v>
       </c>
@@ -6229,7 +6224,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -6237,12 +6232,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6268,7 +6263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>38</v>
       </c>
@@ -6293,7 +6288,7 @@
       </c>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -6314,9 +6309,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6335,9 +6330,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6347,7 +6342,7 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
@@ -6356,7 +6351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -6377,7 +6372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -6398,7 +6393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -6418,7 +6413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>33</v>
       </c>
@@ -6439,7 +6434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -6447,7 +6442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -6455,7 +6450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6463,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -6471,7 +6466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6479,7 +6474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -6487,7 +6482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -6495,7 +6490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -6503,7 +6498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>64</v>
       </c>
@@ -6511,7 +6506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>65</v>
       </c>
@@ -6519,12 +6514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -6550,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>40</v>
       </c>
@@ -6574,7 +6569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -6595,9 +6590,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6616,9 +6611,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6628,7 +6623,7 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
@@ -6637,7 +6632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>29</v>
       </c>
@@ -6679,7 +6674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>33</v>
       </c>
@@ -6700,15 +6695,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6716,7 +6711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6724,15 +6719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6740,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6748,7 +6743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -6756,20 +6751,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6795,9 +6790,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6816,10 +6811,10 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6839,7 +6834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -6862,9 +6857,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6882,7 +6877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>40</v>
       </c>
@@ -6902,7 +6897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -6926,7 +6921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>46</v>
       </c>
@@ -6950,7 +6945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -6974,7 +6969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>54</v>
       </c>
@@ -6999,9 +6994,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7016,26 +7011,26 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H384" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B387" s="3"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -7046,55 +7041,55 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="7"/>
       <c r="F395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B407" s="3"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -7105,55 +7100,55 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="7"/>
       <c r="F415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B427" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -7164,55 +7159,55 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="7"/>
       <c r="F435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B447" s="3"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -7223,48 +7218,48 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="7"/>
       <c r="F455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B463" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B261" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B245" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B228" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B212" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B294" r:id="rId1"/>
+    <hyperlink ref="B278" r:id="rId2"/>
+    <hyperlink ref="B261" r:id="rId3"/>
+    <hyperlink ref="B245" r:id="rId4"/>
+    <hyperlink ref="B228" r:id="rId5"/>
+    <hyperlink ref="B212" r:id="rId6"/>
+    <hyperlink ref="B196" r:id="rId7"/>
+    <hyperlink ref="B180" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1DD16-43B4-DC45-A8E5-7327E73EC7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="132">
   <si>
     <t>database</t>
   </si>
@@ -224,9 +235,6 @@
     <t>credit allocation to fuel producer</t>
   </si>
   <si>
-    <t>Gasoline, synthetic</t>
-  </si>
-  <si>
     <t>Methanol-based fuels</t>
   </si>
   <si>
@@ -405,9 +413,6 @@
   </si>
   <si>
     <t>methanol production facility, construction</t>
-  </si>
-  <si>
-    <t>LPG</t>
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
@@ -431,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -787,22 +792,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="H384" sqref="H384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,15 +815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -826,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -834,15 +839,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -850,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -858,12 +863,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -883,13 +888,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -898,9 +903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -924,12 +929,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -949,12 +954,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -974,12 +979,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -999,18 +1004,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -1024,12 +1029,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1049,18 +1054,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -1074,12 +1079,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1099,10 +1104,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1127,9 +1132,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1138,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1149,12 +1154,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1163,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1174,10 +1179,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1215,15 +1220,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1239,15 +1244,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1263,12 +1268,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1288,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>79</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1303,9 +1308,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1329,12 +1334,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1354,12 +1359,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1379,12 +1384,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1404,18 +1409,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -1429,12 +1434,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1454,18 +1459,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1479,12 +1484,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1504,10 +1509,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1532,9 +1537,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1543,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1554,12 +1559,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1568,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1579,10 +1584,10 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1620,15 +1625,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1644,15 +1649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1668,12 +1673,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1693,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
         <v>77</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>78</v>
-      </c>
-      <c r="I52" t="s">
-        <v>79</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1708,9 +1713,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1734,12 +1739,12 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -1759,12 +1764,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1784,12 +1789,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1809,18 +1814,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>31</v>
@@ -1834,12 +1839,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1859,18 +1864,18 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
@@ -1884,12 +1889,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1909,10 +1914,10 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -1937,9 +1942,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1948,7 +1953,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -1959,12 +1964,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1973,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -1984,10 +1989,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -2025,15 +2030,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2049,15 +2054,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2073,12 +2078,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2098,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
         <v>77</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>78</v>
-      </c>
-      <c r="I73" t="s">
-        <v>79</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2113,9 +2118,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2139,12 +2144,12 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2164,12 +2169,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2189,12 +2194,12 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2214,18 +2219,18 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2239,12 +2244,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2264,18 +2269,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2289,12 +2294,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2314,10 +2319,10 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
@@ -2342,9 +2347,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2353,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -2364,12 +2369,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2378,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -2389,10 +2394,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -2430,7 +2435,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -2443,15 +2448,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2467,15 +2472,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2491,12 +2496,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2516,13 +2521,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
         <v>77</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>78</v>
-      </c>
-      <c r="I95" t="s">
-        <v>79</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2531,9 +2536,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2557,12 +2562,12 @@
         <v>17</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2582,12 +2587,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2607,12 +2612,12 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2632,18 +2637,18 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -2657,12 +2662,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2682,18 +2687,18 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>10</v>
@@ -2707,12 +2712,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2732,10 +2737,10 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
@@ -2760,9 +2765,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2771,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -2782,12 +2787,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2796,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -2807,10 +2812,10 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -2848,15 +2853,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2872,15 +2877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2896,12 +2901,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2921,13 +2926,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
         <v>77</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>78</v>
-      </c>
-      <c r="I116" t="s">
-        <v>79</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2936,9 +2941,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2962,12 +2967,12 @@
         <v>17</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -2987,12 +2992,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3012,12 +3017,12 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3037,18 +3042,18 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>31</v>
@@ -3062,12 +3067,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3087,18 +3092,18 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>10</v>
@@ -3112,12 +3117,12 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3137,10 +3142,10 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>22</v>
       </c>
@@ -3165,9 +3170,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3176,7 +3181,7 @@
         <v>55</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -3187,12 +3192,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3201,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -3212,10 +3217,10 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -3253,15 +3258,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3277,15 +3282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3301,12 +3306,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3326,13 +3331,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
         <v>77</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>78</v>
-      </c>
-      <c r="I137" t="s">
-        <v>79</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -3341,9 +3346,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3367,12 +3372,12 @@
         <v>17</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3392,12 +3397,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3417,12 +3422,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3442,18 +3447,18 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>31</v>
@@ -3467,12 +3472,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3492,18 +3497,18 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -3517,12 +3522,12 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3542,10 +3547,10 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>22</v>
       </c>
@@ -3570,9 +3575,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3581,7 +3586,7 @@
         <v>55</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -3592,12 +3597,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3606,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -3617,10 +3622,10 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>54</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -3658,15 +3663,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3682,15 +3687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3706,12 +3711,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3731,13 +3736,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
         <v>77</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>78</v>
-      </c>
-      <c r="I158" t="s">
-        <v>79</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3746,9 +3751,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -3772,12 +3777,12 @@
         <v>17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -3797,12 +3802,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3822,12 +3827,12 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3847,18 +3852,18 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>31</v>
@@ -3872,12 +3877,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3897,18 +3902,18 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -3922,12 +3927,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3947,10 +3952,10 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>22</v>
       </c>
@@ -3975,9 +3980,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3986,7 +3991,7 @@
         <v>55</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -3997,12 +4002,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4011,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4022,10 +4027,10 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>54</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -4063,7 +4068,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -4076,15 +4081,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4092,15 +4097,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -4124,28 +4129,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>12</v>
       </c>
@@ -4174,9 +4179,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4192,15 +4197,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
@@ -4215,15 +4220,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H184" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4238,15 +4243,15 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
+        <v>67</v>
+      </c>
+      <c r="I185" t="s">
         <v>68</v>
       </c>
-      <c r="I185" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>70</v>
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
@@ -4265,12 +4270,12 @@
         <v>45</v>
       </c>
       <c r="H186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4292,21 +4297,21 @@
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4314,15 +4319,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4346,28 +4351,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>12</v>
       </c>
@@ -4396,9 +4401,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4414,15 +4419,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B200" s="4">
         <v>1.93</v>
@@ -4437,15 +4442,15 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H200" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4454,21 +4459,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
       </c>
       <c r="G201" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201" t="s">
         <v>68</v>
       </c>
-      <c r="I201" t="s">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>70</v>
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
@@ -4487,12 +4492,12 @@
         <v>45</v>
       </c>
       <c r="H202" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4514,21 +4519,21 @@
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4536,15 +4541,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4568,28 +4573,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>12</v>
       </c>
@@ -4618,9 +4623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4636,15 +4641,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B216" s="4">
         <v>2.4510000000000001</v>
@@ -4659,15 +4664,15 @@
         <v>23</v>
       </c>
       <c r="G216" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H216" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4682,15 +4687,15 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
+        <v>67</v>
+      </c>
+      <c r="I217" t="s">
         <v>68</v>
       </c>
-      <c r="I217" t="s">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>70</v>
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
@@ -4709,12 +4714,12 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4736,21 +4741,21 @@
         <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4758,15 +4763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4790,28 +4795,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>12</v>
       </c>
@@ -4840,9 +4845,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4858,15 +4863,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B232" s="4">
         <v>2.57</v>
@@ -4881,15 +4886,15 @@
         <v>23</v>
       </c>
       <c r="G232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H232" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4904,15 +4909,15 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
+        <v>67</v>
+      </c>
+      <c r="I233" t="s">
         <v>68</v>
       </c>
-      <c r="I233" t="s">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>70</v>
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
@@ -4931,12 +4936,12 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -4958,24 +4963,24 @@
         <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4983,15 +4988,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -5015,28 +5020,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>12</v>
       </c>
@@ -5065,9 +5070,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -5083,15 +5088,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B249" s="4">
         <v>2.371</v>
@@ -5106,15 +5111,15 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H249" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5129,15 +5134,15 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
+        <v>67</v>
+      </c>
+      <c r="I250" t="s">
         <v>68</v>
       </c>
-      <c r="I250" t="s">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>70</v>
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
@@ -5156,12 +5161,12 @@
         <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5183,21 +5188,21 @@
         <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5205,15 +5210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -5237,28 +5242,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>12</v>
       </c>
@@ -5287,9 +5292,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5305,15 +5310,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B265" s="4">
         <v>4.5599999999999996</v>
@@ -5328,15 +5333,15 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H265" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5351,15 +5356,15 @@
         <v>20</v>
       </c>
       <c r="G266" t="s">
+        <v>67</v>
+      </c>
+      <c r="I266" t="s">
         <v>68</v>
       </c>
-      <c r="I266" t="s">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>70</v>
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
@@ -5378,12 +5383,12 @@
         <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5405,24 +5410,24 @@
         <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5430,15 +5435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -5462,28 +5467,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>12</v>
       </c>
@@ -5512,9 +5517,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5530,15 +5535,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B282" s="4">
         <v>2.5350000000000001</v>
@@ -5553,15 +5558,15 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H282" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5576,15 +5581,15 @@
         <v>20</v>
       </c>
       <c r="G283" t="s">
+        <v>67</v>
+      </c>
+      <c r="I283" t="s">
         <v>68</v>
       </c>
-      <c r="I283" t="s">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>70</v>
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
@@ -5603,12 +5608,12 @@
         <v>45</v>
       </c>
       <c r="H284" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5630,21 +5635,21 @@
         <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5652,15 +5657,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +5673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5676,7 +5681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5684,28 +5689,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>12</v>
       </c>
@@ -5734,9 +5739,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5752,15 +5757,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B298" s="4">
         <v>1.77</v>
@@ -5775,15 +5780,15 @@
         <v>23</v>
       </c>
       <c r="G298" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H298" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5792,21 +5797,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
       </c>
       <c r="G299" t="s">
+        <v>67</v>
+      </c>
+      <c r="I299" t="s">
         <v>68</v>
       </c>
-      <c r="I299" t="s">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>70</v>
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
@@ -5825,12 +5830,12 @@
         <v>45</v>
       </c>
       <c r="H300" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5852,13 +5857,13 @@
         <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>64</v>
       </c>
@@ -5930,12 +5935,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +5991,7 @@
       </c>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -6007,9 +6012,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6028,9 +6033,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6040,7 +6045,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -6049,7 +6054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -6070,7 +6075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>33</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6176,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -6184,7 +6189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>64</v>
       </c>
@@ -6224,7 +6229,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -6232,12 +6237,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6263,7 +6268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>38</v>
       </c>
@@ -6288,7 +6293,7 @@
       </c>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -6309,9 +6314,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6330,9 +6335,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6342,7 +6347,7 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
@@ -6351,7 +6356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -6372,7 +6377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -6413,7 +6418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>33</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -6482,7 +6487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -6490,7 +6495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>64</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>65</v>
       </c>
@@ -6514,12 +6519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>40</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -6590,9 +6595,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6611,9 +6616,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6623,7 +6628,7 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
@@ -6632,7 +6637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>33</v>
       </c>
@@ -6695,15 +6700,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6719,15 +6724,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +6740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6743,7 +6748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -6751,20 +6756,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6790,9 +6795,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6811,10 +6816,10 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -6857,9 +6862,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6877,7 +6882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>40</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>46</v>
       </c>
@@ -6945,7 +6950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>54</v>
       </c>
@@ -6994,9 +6999,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7010,27 +7015,24 @@
       <c r="F384" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G384" t="s">
-        <v>126</v>
-      </c>
       <c r="H384" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B387" s="3"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -7041,55 +7043,55 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="7"/>
       <c r="F395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B407" s="3"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -7100,55 +7102,55 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="7"/>
       <c r="F415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B427" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -7159,55 +7161,55 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="7"/>
       <c r="F435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B447" s="3"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -7218,48 +7220,48 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="7"/>
       <c r="F455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1"/>
-    <hyperlink ref="B278" r:id="rId2"/>
-    <hyperlink ref="B261" r:id="rId3"/>
-    <hyperlink ref="B245" r:id="rId4"/>
-    <hyperlink ref="B228" r:id="rId5"/>
-    <hyperlink ref="B212" r:id="rId6"/>
-    <hyperlink ref="B196" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B261" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B245" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B228" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B212" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421AE5D-E6E7-C84F-B8B2-B605528BB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28340" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="0.01" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -215,9 +216,6 @@
     <t>Capture of CO2 from a cement plant for subsequent reuse. It is a standalone facility, so 100% of the needed steam heat (used to regenerate the sorbent) is from a dedicated source. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because teh CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. Does NOT include compression for transport or the transport itself. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
   </si>
   <si>
-    <t>Capture of CO2 from a cement plant for subsequent reuse. It is a facility integrated in a synthetic fuel production chain, so a certain amount of the needed steam heat (used to regenerate the sorbent) can come from excess heat generated by the synfuel conversion process, the rest being complemented by a dedicated source. In Meunier et al. 2020, 26% comes from excess heat generated by the methanol production process. To be changed according to needs. Also, there is no need for water, as it is provided by the methanol production process as well. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because teh CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
-  </si>
-  <si>
     <t>share biogenic CO2</t>
   </si>
   <si>
@@ -426,12 +424,15 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>Capture of CO2 from a cement plant for subsequent reuse. It is a facility integrated in a synthetic fuel production chain, so a certain amount of the needed steam heat (used to regenerate the sorbent) can come from excess heat generated by the synfuel conversion process, the rest being complemented by a dedicated source. In Meunier et al. 2020, 26% comes from excess heat generated by the methanol production process. To be changed according to needs. Also, there is no need for water, as it is provided by the methanol production process as well. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because the CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -787,22 +788,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,15 +811,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -826,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -834,15 +835,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -850,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -858,12 +859,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -883,13 +884,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -898,9 +899,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -924,12 +925,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -949,12 +950,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -974,12 +975,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -999,18 +1000,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -1024,12 +1025,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1049,18 +1050,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -1074,12 +1075,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1099,10 +1100,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1127,9 +1128,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1138,7 +1139,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1149,12 +1150,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1163,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1174,10 +1175,10 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1215,15 +1216,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1239,15 +1240,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1263,12 +1264,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1288,13 +1289,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>79</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1303,9 +1304,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1329,12 +1330,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -1354,12 +1355,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1379,12 +1380,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1404,18 +1405,18 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -1429,12 +1430,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1454,18 +1455,18 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1479,12 +1480,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1504,10 +1505,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1532,9 +1533,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1543,7 +1544,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -1554,12 +1555,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1568,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -1579,10 +1580,10 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1620,15 +1621,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1644,15 +1645,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1668,12 +1669,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1693,13 +1694,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
         <v>77</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>78</v>
-      </c>
-      <c r="I52" t="s">
-        <v>79</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1708,9 +1709,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1734,12 +1735,12 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -1759,12 +1760,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1784,12 +1785,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -1809,18 +1810,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>31</v>
@@ -1834,12 +1835,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -1859,18 +1860,18 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>10</v>
@@ -1884,12 +1885,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -1909,10 +1910,10 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -1937,9 +1938,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
@@ -1948,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -1959,12 +1960,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -1973,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -1984,10 +1985,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -2025,15 +2026,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2049,15 +2050,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2073,12 +2074,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2098,13 +2099,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
         <v>77</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>78</v>
-      </c>
-      <c r="I73" t="s">
-        <v>79</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2113,9 +2114,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -2139,12 +2140,12 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -2164,12 +2165,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2189,12 +2190,12 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2214,18 +2215,18 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2239,12 +2240,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2264,18 +2265,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>10</v>
@@ -2289,12 +2290,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2314,10 +2315,10 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
@@ -2342,9 +2343,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2353,7 +2354,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -2364,12 +2365,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2378,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -2389,10 +2390,10 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -2430,7 +2431,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -2443,15 +2444,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2467,15 +2468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2491,12 +2492,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2516,13 +2517,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
         <v>77</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>78</v>
-      </c>
-      <c r="I95" t="s">
-        <v>79</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2531,9 +2532,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -2557,12 +2558,12 @@
         <v>17</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -2582,12 +2583,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2607,12 +2608,12 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -2632,18 +2633,18 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>31</v>
@@ -2657,12 +2658,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2682,18 +2683,18 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>10</v>
@@ -2707,12 +2708,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -2732,10 +2733,10 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>22</v>
       </c>
@@ -2760,9 +2761,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
@@ -2771,7 +2772,7 @@
         <v>55</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -2782,12 +2783,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2796,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -2807,10 +2808,10 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -2848,15 +2849,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2872,15 +2873,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2896,12 +2897,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2921,13 +2922,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
         <v>77</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>78</v>
-      </c>
-      <c r="I116" t="s">
-        <v>79</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2936,9 +2937,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -2962,12 +2963,12 @@
         <v>17</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -2987,12 +2988,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3012,12 +3013,12 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3037,18 +3038,18 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>31</v>
@@ -3062,12 +3063,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3087,18 +3088,18 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>10</v>
@@ -3112,12 +3113,12 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3137,10 +3138,10 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>22</v>
       </c>
@@ -3165,9 +3166,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3176,7 +3177,7 @@
         <v>55</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -3187,12 +3188,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3201,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -3212,10 +3213,10 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -3253,15 +3254,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3277,15 +3278,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3301,12 +3302,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3326,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
         <v>77</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>78</v>
-      </c>
-      <c r="I137" t="s">
-        <v>79</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -3341,9 +3342,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -3367,12 +3368,12 @@
         <v>17</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -3392,12 +3393,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3417,12 +3418,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3442,18 +3443,18 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>31</v>
@@ -3467,12 +3468,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3492,18 +3493,18 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -3517,12 +3518,12 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3542,10 +3543,10 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>22</v>
       </c>
@@ -3570,9 +3571,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3581,7 +3582,7 @@
         <v>55</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -3592,12 +3593,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3606,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -3617,10 +3618,10 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>54</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -3658,15 +3659,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3682,15 +3683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3706,12 +3707,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3731,13 +3732,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
         <v>77</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>78</v>
-      </c>
-      <c r="I158" t="s">
-        <v>79</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3746,9 +3747,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -3772,12 +3773,12 @@
         <v>17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -3797,12 +3798,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3822,12 +3823,12 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
@@ -3847,18 +3848,18 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>31</v>
@@ -3872,12 +3873,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3897,18 +3898,18 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -3922,12 +3923,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
@@ -3947,10 +3948,10 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>22</v>
       </c>
@@ -3975,9 +3976,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
@@ -3986,7 +3987,7 @@
         <v>55</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -3997,12 +3998,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4011,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4022,10 +4023,10 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>54</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -4063,7 +4064,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -4076,15 +4077,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4092,15 +4093,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -4124,28 +4125,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>28</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>12</v>
       </c>
@@ -4174,9 +4175,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -4192,15 +4193,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B184" s="4">
         <v>2.3730000000000002</v>
@@ -4215,15 +4216,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H184" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4238,15 +4239,15 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
+        <v>67</v>
+      </c>
+      <c r="I185" t="s">
         <v>68</v>
       </c>
-      <c r="I185" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>70</v>
       </c>
       <c r="B186" s="4">
         <f>18.4/1000*B184</f>
@@ -4265,12 +4266,12 @@
         <v>45</v>
       </c>
       <c r="H186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4292,21 +4293,21 @@
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4314,15 +4315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4346,28 +4347,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>28</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>12</v>
       </c>
@@ -4396,9 +4397,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4414,15 +4415,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B200" s="4">
         <v>1.93</v>
@@ -4437,15 +4438,15 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H200" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4454,21 +4455,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
       </c>
       <c r="G201" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201" t="s">
         <v>68</v>
       </c>
-      <c r="I201" t="s">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>70</v>
       </c>
       <c r="B202" s="4">
         <f>18.4/1000*B200</f>
@@ -4487,12 +4488,12 @@
         <v>45</v>
       </c>
       <c r="H202" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4514,21 +4515,21 @@
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4536,15 +4537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4568,28 +4569,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>28</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>12</v>
       </c>
@@ -4618,9 +4619,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -4636,15 +4637,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B216" s="4">
         <v>2.4510000000000001</v>
@@ -4659,15 +4660,15 @@
         <v>23</v>
       </c>
       <c r="G216" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H216" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4682,15 +4683,15 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
+        <v>67</v>
+      </c>
+      <c r="I217" t="s">
         <v>68</v>
       </c>
-      <c r="I217" t="s">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>70</v>
       </c>
       <c r="B218" s="4">
         <f>18.4/1000*B216</f>
@@ -4709,12 +4710,12 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4736,21 +4737,21 @@
         <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4758,15 +4759,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4790,28 +4791,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>28</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>12</v>
       </c>
@@ -4840,9 +4841,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -4858,15 +4859,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B232" s="4">
         <v>2.57</v>
@@ -4881,15 +4882,15 @@
         <v>23</v>
       </c>
       <c r="G232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H232" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4904,15 +4905,15 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
+        <v>67</v>
+      </c>
+      <c r="I233" t="s">
         <v>68</v>
       </c>
-      <c r="I233" t="s">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>70</v>
       </c>
       <c r="B234" s="4">
         <f>18.4/1000*B232</f>
@@ -4931,12 +4932,12 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -4958,24 +4959,24 @@
         <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4983,15 +4984,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -5015,28 +5016,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>28</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>12</v>
       </c>
@@ -5065,9 +5066,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -5083,15 +5084,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B249" s="4">
         <v>2.371</v>
@@ -5106,15 +5107,15 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H249" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5129,15 +5130,15 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
+        <v>67</v>
+      </c>
+      <c r="I250" t="s">
         <v>68</v>
       </c>
-      <c r="I250" t="s">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>70</v>
       </c>
       <c r="B251" s="4">
         <f>18.4/1000*B249</f>
@@ -5156,12 +5157,12 @@
         <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5183,21 +5184,21 @@
         <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5205,15 +5206,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -5237,28 +5238,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>28</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>12</v>
       </c>
@@ -5287,9 +5288,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -5305,15 +5306,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B265" s="4">
         <v>4.5599999999999996</v>
@@ -5328,15 +5329,15 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H265" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5351,15 +5352,15 @@
         <v>20</v>
       </c>
       <c r="G266" t="s">
+        <v>67</v>
+      </c>
+      <c r="I266" t="s">
         <v>68</v>
       </c>
-      <c r="I266" t="s">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>70</v>
       </c>
       <c r="B267" s="4">
         <f>18.4/1000*B265</f>
@@ -5378,12 +5379,12 @@
         <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5405,24 +5406,24 @@
         <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5430,15 +5431,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -5462,28 +5463,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>12</v>
       </c>
@@ -5512,9 +5513,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -5530,15 +5531,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B282" s="4">
         <v>2.5350000000000001</v>
@@ -5553,15 +5554,15 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H282" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5576,15 +5577,15 @@
         <v>20</v>
       </c>
       <c r="G283" t="s">
+        <v>67</v>
+      </c>
+      <c r="I283" t="s">
         <v>68</v>
       </c>
-      <c r="I283" t="s">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>70</v>
       </c>
       <c r="B284" s="4">
         <f>18.4/1000*B282</f>
@@ -5603,12 +5604,12 @@
         <v>45</v>
       </c>
       <c r="H284" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5630,21 +5631,21 @@
         <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5652,15 +5653,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5684,28 +5685,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>28</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>12</v>
       </c>
@@ -5734,9 +5735,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -5752,15 +5753,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B298" s="4">
         <v>1.77</v>
@@ -5775,15 +5776,15 @@
         <v>23</v>
       </c>
       <c r="G298" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H298" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5792,21 +5793,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
       </c>
       <c r="G299" t="s">
+        <v>67</v>
+      </c>
+      <c r="I299" t="s">
         <v>68</v>
       </c>
-      <c r="I299" t="s">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>70</v>
       </c>
       <c r="B300" s="4">
         <f>18.4/1000*B298</f>
@@ -5825,12 +5826,12 @@
         <v>45</v>
       </c>
       <c r="H300" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5852,13 +5853,13 @@
         <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5922,20 +5923,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B311">
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -6007,9 +6008,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6028,9 +6029,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6040,7 +6041,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -6049,7 +6050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -6111,7 +6112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>33</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -6216,28 +6217,28 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B332">
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>38</v>
       </c>
@@ -6288,7 +6289,7 @@
       </c>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -6309,9 +6310,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6330,9 +6331,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6342,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
@@ -6351,7 +6352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>33</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -6490,36 +6491,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
       <c r="B352" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>64</v>
       </c>
       <c r="B353">
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>40</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -6590,9 +6591,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6611,9 +6612,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6623,7 +6624,7 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
@@ -6632,7 +6633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>33</v>
       </c>
@@ -6695,15 +6696,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6719,15 +6720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -6751,20 +6752,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6790,9 +6791,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B375" s="3">
         <v>1</v>
@@ -6811,10 +6812,10 @@
         <v>17</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -6857,9 +6858,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6877,7 +6878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>40</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>46</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>54</v>
       </c>
@@ -6994,9 +6995,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -7011,26 +7012,26 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
+        <v>125</v>
+      </c>
+      <c r="H384" t="s">
         <v>126</v>
       </c>
-      <c r="H384" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B387" s="3"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -7041,55 +7042,55 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="E395" s="7"/>
       <c r="F395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B407" s="3"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -7100,55 +7101,55 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="E415" s="7"/>
       <c r="F415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B427" s="3"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -7159,55 +7160,55 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="E435" s="7"/>
       <c r="F435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B447" s="3"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -7218,48 +7219,48 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="E455" s="7"/>
       <c r="F455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1"/>
-    <hyperlink ref="B278" r:id="rId2"/>
-    <hyperlink ref="B261" r:id="rId3"/>
-    <hyperlink ref="B245" r:id="rId4"/>
-    <hyperlink ref="B228" r:id="rId5"/>
-    <hyperlink ref="B212" r:id="rId6"/>
-    <hyperlink ref="B196" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B261" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B245" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B228" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B212" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B180" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1DD16-43B4-DC45-A8E5-7327E73EC7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421AE5D-E6E7-C84F-B8B2-B605528BB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28340" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="0.01" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
   <si>
     <t>database</t>
   </si>
@@ -226,15 +216,15 @@
     <t>Capture of CO2 from a cement plant for subsequent reuse. It is a standalone facility, so 100% of the needed steam heat (used to regenerate the sorbent) is from a dedicated source. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because teh CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. Does NOT include compression for transport or the transport itself. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
   </si>
   <si>
-    <t>Capture of CO2 from a cement plant for subsequent reuse. It is a facility integrated in a synthetic fuel production chain, so a certain amount of the needed steam heat (used to regenerate the sorbent) can come from excess heat generated by the synfuel conversion process, the rest being complemented by a dedicated source. In Meunier et al. 2020, 26% comes from excess heat generated by the methanol production process. To be changed according to needs. Also, there is no need for water, as it is provided by the methanol production process as well. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because teh CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
-  </si>
-  <si>
     <t>share biogenic CO2</t>
   </si>
   <si>
     <t>credit allocation to fuel producer</t>
   </si>
   <si>
+    <t>Gasoline, synthetic</t>
+  </si>
+  <si>
     <t>Methanol-based fuels</t>
   </si>
   <si>
@@ -415,6 +405,9 @@
     <t>methanol production facility, construction</t>
   </si>
   <si>
+    <t>LPG</t>
+  </si>
+  <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
   </si>
   <si>
@@ -431,6 +424,9 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>Capture of CO2 from a cement plant for subsequent reuse. It is a facility integrated in a synthetic fuel production chain, so a certain amount of the needed steam heat (used to regenerate the sorbent) can come from excess heat generated by the synfuel conversion process, the rest being complemented by a dedicated source. In Meunier et al. 2020, 26% comes from excess heat generated by the methanol production process. To be changed according to needs. Also, there is no need for water, as it is provided by the methanol production process as well. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because the CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
   </si>
 </sst>
 </file>
@@ -795,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="H384" sqref="H384"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2165,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3802,7 +3798,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -4134,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -4228,7 +4224,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4275,7 +4271,7 @@
     </row>
     <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4356,7 +4352,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -4450,7 +4446,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4459,7 +4455,7 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
@@ -4497,7 +4493,7 @@
     </row>
     <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4672,7 +4668,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4719,7 +4715,7 @@
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4894,7 +4890,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4941,7 +4937,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -5119,7 +5115,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5166,7 +5162,7 @@
     </row>
     <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5341,7 +5337,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5388,7 +5384,7 @@
     </row>
     <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5566,7 +5562,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5613,7 +5609,7 @@
     </row>
     <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5797,7 +5793,7 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
@@ -5835,7 +5831,7 @@
     </row>
     <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -5929,7 +5925,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B311">
         <v>0.2</v>
@@ -6014,7 +6010,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6035,7 +6031,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6045,7 +6041,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -6223,7 +6219,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B332">
         <v>0.2</v>
@@ -6231,7 +6227,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6316,7 +6312,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6337,7 +6333,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6347,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
@@ -6500,12 +6496,12 @@
         <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B353">
         <v>0.2</v>
@@ -6513,7 +6509,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6597,7 +6593,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6618,7 +6614,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6628,7 +6624,7 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
@@ -6864,7 +6860,7 @@
     </row>
     <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -7015,8 +7011,11 @@
       <c r="F384" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G384" t="s">
+        <v>125</v>
+      </c>
       <c r="H384" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421AE5D-E6E7-C84F-B8B2-B605528BB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCBD85-0740-EF45-B706-A5C77A35E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28340" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="0.01" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="133">
   <si>
     <t>database</t>
   </si>
@@ -403,9 +414,6 @@
   </si>
   <si>
     <t>methanol production facility, construction</t>
-  </si>
-  <si>
-    <t>LPG</t>
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
@@ -791,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="H384" sqref="H384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4130,7 +4138,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -4224,7 +4232,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B185" s="4">
         <v>0.11</v>
@@ -4271,7 +4279,7 @@
     </row>
     <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B187" s="4">
         <f>0.01*B184</f>
@@ -4352,7 +4360,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -4446,7 +4454,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B201" s="4">
         <v>0.5</v>
@@ -4455,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F201" t="s">
         <v>20</v>
@@ -4493,7 +4501,7 @@
     </row>
     <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B203" s="4">
         <f>0.01*B200</f>
@@ -4668,7 +4676,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B217" s="4">
         <v>0.2</v>
@@ -4715,7 +4723,7 @@
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B219" s="4">
         <f>0.01*B216</f>
@@ -4890,7 +4898,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B233" s="4">
         <v>0.36</v>
@@ -4937,7 +4945,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B235" s="4">
         <f>0.01*B232</f>
@@ -5115,7 +5123,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B250" s="4">
         <v>0.11</v>
@@ -5162,7 +5170,7 @@
     </row>
     <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B252" s="4">
         <f>0.01*B249</f>
@@ -5337,7 +5345,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B266" s="4">
         <v>3.11</v>
@@ -5384,7 +5392,7 @@
     </row>
     <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B268" s="4">
         <f>0.01*B265</f>
@@ -5562,7 +5570,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B283" s="4">
         <v>0.46</v>
@@ -5609,7 +5617,7 @@
     </row>
     <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B285" s="4">
         <f>0.01*B282</f>
@@ -5784,7 +5792,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B299" s="4">
         <v>0.57999999999999996</v>
@@ -5793,7 +5801,7 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F299" t="s">
         <v>20</v>
@@ -5831,7 +5839,7 @@
     </row>
     <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B301" s="4">
         <f>0.01*B298</f>
@@ -6010,7 +6018,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -6031,7 +6039,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -6041,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -6312,7 +6320,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -6333,7 +6341,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -6343,7 +6351,7 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F339" t="s">
         <v>20</v>
@@ -6496,7 +6504,7 @@
         <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -6593,7 +6601,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6614,7 +6622,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6624,7 +6632,7 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F360" t="s">
         <v>20</v>
@@ -6860,7 +6868,7 @@
     </row>
     <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -7015,7 +7023,7 @@
         <v>125</v>
       </c>
       <c r="H384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90573BC7-7E07-1D46-A5BB-89EFE535B9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B2B6E-1AE2-D644-8037-858972D21218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28340" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$463</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,9 +152,6 @@
     <t>No steam heat here, as heat is recovered from CO2 compression.</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>market for zinc oxide</t>
   </si>
   <si>
@@ -395,9 +395,6 @@
     <t>methanol production facility, construction</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
     <t>CO2 emission factor: 3.114 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
   </si>
   <si>
@@ -435,6 +432,12 @@
   </si>
   <si>
     <t>Capture of CO2 from a cement plant for subsequent reuse. It is a standalone facility, so 100% of the needed steam heat (used to regenerate the sorbent) is from a dedicated source. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because the CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. Does NOT include compression for transport or the transport itself. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 200 bar</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +486,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,6 +520,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -794,10 +803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G466" sqref="G466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -816,15 +826,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -832,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -840,15 +851,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -856,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -864,12 +875,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -889,13 +900,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -904,9 +915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -927,12 +938,12 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>1.00057</v>
@@ -947,12 +958,12 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>6.7000000000000002E-3</v>
@@ -967,18 +978,18 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -987,18 +998,18 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>75</v>
       </c>
       <c r="B15" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1007,12 +1018,12 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>78</v>
       </c>
       <c r="B16" s="4">
         <v>2.5999999999999998E-10</v>
@@ -1027,18 +1038,18 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
       </c>
       <c r="B17" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1047,30 +1058,30 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>82</v>
       </c>
       <c r="B18" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1078,7 +1089,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1090,29 +1101,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>87</v>
       </c>
       <c r="B21">
         <v>3.2599999999999997E-2</v>
@@ -1121,47 +1132,47 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1177,15 +1188,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1201,12 +1212,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1226,13 +1237,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
         <v>69</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>70</v>
-      </c>
-      <c r="I31" t="s">
-        <v>71</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1241,9 +1252,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1264,12 +1275,12 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>1.00057</v>
@@ -1284,12 +1295,12 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>6.7000000000000002E-3</v>
@@ -1304,18 +1315,18 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1324,18 +1335,18 @@
         <v>22</v>
       </c>
       <c r="K35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>75</v>
       </c>
       <c r="B36" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
@@ -1344,12 +1355,12 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>78</v>
       </c>
       <c r="B37" s="4">
         <v>2.5999999999999998E-10</v>
@@ -1364,18 +1375,18 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>80</v>
       </c>
       <c r="B38" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1384,30 +1395,30 @@
         <v>22</v>
       </c>
       <c r="K38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>82</v>
       </c>
       <c r="B39" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
         <v>50</v>
       </c>
-      <c r="D39" t="s">
-        <v>51</v>
-      </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1426,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1427,29 +1438,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
         <v>85</v>
       </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" t="s">
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>87</v>
       </c>
       <c r="B42">
         <v>3.2599999999999997E-2</v>
@@ -1458,47 +1469,47 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
         <v>51</v>
       </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1514,15 +1525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1538,12 +1549,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1563,13 +1574,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s">
         <v>69</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>70</v>
-      </c>
-      <c r="I52" t="s">
-        <v>71</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1578,9 +1589,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1601,12 +1612,12 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54">
         <v>1.00057</v>
@@ -1621,12 +1632,12 @@
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>6.7000000000000002E-3</v>
@@ -1641,18 +1652,18 @@
         <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1661,18 +1672,18 @@
         <v>22</v>
       </c>
       <c r="K56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>75</v>
       </c>
       <c r="B57" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -1681,12 +1692,12 @@
         <v>22</v>
       </c>
       <c r="K57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>78</v>
       </c>
       <c r="B58" s="4">
         <v>2.5999999999999998E-10</v>
@@ -1701,18 +1712,18 @@
         <v>22</v>
       </c>
       <c r="K58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>80</v>
       </c>
       <c r="B59" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -1721,30 +1732,30 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>82</v>
       </c>
       <c r="B60" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
         <v>50</v>
       </c>
-      <c r="D60" t="s">
-        <v>51</v>
-      </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1764,29 +1775,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" t="s">
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>87</v>
       </c>
       <c r="B63">
         <v>3.2599999999999997E-2</v>
@@ -1795,47 +1806,47 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
         <v>50</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
         <v>51</v>
       </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1851,15 +1862,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1875,12 +1886,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -1900,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" t="s">
         <v>69</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>70</v>
-      </c>
-      <c r="I73" t="s">
-        <v>71</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -1915,9 +1926,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1938,12 +1949,12 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75">
         <v>1.00057</v>
@@ -1958,12 +1969,12 @@
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76">
         <v>6.7000000000000002E-3</v>
@@ -1978,18 +1989,18 @@
         <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -1998,18 +2009,18 @@
         <v>22</v>
       </c>
       <c r="K77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>75</v>
       </c>
       <c r="B78" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
         <v>30</v>
@@ -2018,12 +2029,12 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
       </c>
       <c r="B79" s="4">
         <v>2.5999999999999998E-10</v>
@@ -2038,18 +2049,18 @@
         <v>22</v>
       </c>
       <c r="K79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>80</v>
       </c>
       <c r="B80" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -2058,30 +2069,30 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>82</v>
       </c>
       <c r="B81" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
         <v>50</v>
       </c>
-      <c r="D81" t="s">
-        <v>51</v>
-      </c>
       <c r="F81" t="s">
         <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2089,7 +2100,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -2101,29 +2112,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" t="s">
         <v>85</v>
       </c>
-      <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" t="s">
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>87</v>
       </c>
       <c r="B84">
         <v>3.2599999999999997E-2</v>
@@ -2132,50 +2143,50 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
         <v>50</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
         <v>51</v>
       </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2191,15 +2202,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2215,12 +2226,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2240,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" t="s">
         <v>69</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>70</v>
-      </c>
-      <c r="I95" t="s">
-        <v>71</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2255,9 +2266,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2278,12 +2289,12 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97">
         <v>1.00057</v>
@@ -2298,12 +2309,12 @@
         <v>22</v>
       </c>
       <c r="K97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B98">
         <v>6.7000000000000002E-3</v>
@@ -2318,18 +2329,18 @@
         <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -2338,18 +2349,18 @@
         <v>22</v>
       </c>
       <c r="K99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>75</v>
       </c>
       <c r="B100" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
@@ -2358,12 +2369,12 @@
         <v>22</v>
       </c>
       <c r="K100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>78</v>
       </c>
       <c r="B101" s="4">
         <v>2.5999999999999998E-10</v>
@@ -2378,18 +2389,18 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>80</v>
       </c>
       <c r="B102" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -2398,30 +2409,30 @@
         <v>22</v>
       </c>
       <c r="K102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>82</v>
       </c>
       <c r="B103" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" t="s">
         <v>50</v>
       </c>
-      <c r="D103" t="s">
-        <v>51</v>
-      </c>
       <c r="F103" t="s">
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -2429,7 +2440,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -2441,29 +2452,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D105" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" t="s">
         <v>85</v>
       </c>
-      <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="K105" t="s">
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>87</v>
       </c>
       <c r="B106">
         <v>3.2599999999999997E-2</v>
@@ -2472,47 +2483,47 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B107" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" t="s">
         <v>50</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" t="s">
         <v>51</v>
       </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2520,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2528,15 +2539,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2552,12 +2563,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2577,13 +2588,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" t="s">
         <v>69</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>70</v>
-      </c>
-      <c r="I116" t="s">
-        <v>71</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2592,9 +2603,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2615,12 +2626,12 @@
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118">
         <v>1.00057</v>
@@ -2635,12 +2646,12 @@
         <v>22</v>
       </c>
       <c r="K118" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119">
         <v>6.7000000000000002E-3</v>
@@ -2655,18 +2666,18 @@
         <v>22</v>
       </c>
       <c r="K119" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B120">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -2675,18 +2686,18 @@
         <v>22</v>
       </c>
       <c r="K120" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>75</v>
       </c>
       <c r="B121" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D121" t="s">
         <v>30</v>
@@ -2695,12 +2706,12 @@
         <v>22</v>
       </c>
       <c r="K121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>78</v>
       </c>
       <c r="B122" s="4">
         <v>2.5999999999999998E-10</v>
@@ -2715,18 +2726,18 @@
         <v>22</v>
       </c>
       <c r="K122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>80</v>
       </c>
       <c r="B123" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -2735,30 +2746,30 @@
         <v>22</v>
       </c>
       <c r="K123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>82</v>
       </c>
       <c r="B124" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" t="s">
         <v>50</v>
       </c>
-      <c r="D124" t="s">
-        <v>51</v>
-      </c>
       <c r="F124" t="s">
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2777,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -2778,29 +2789,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B126">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" t="s">
         <v>85</v>
       </c>
-      <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" t="s">
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>87</v>
       </c>
       <c r="B127">
         <v>3.2599999999999997E-2</v>
@@ -2809,47 +2820,47 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F127" t="s">
         <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B128" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s">
         <v>50</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" t="s">
         <v>51</v>
       </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2857,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -2865,15 +2876,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2889,12 +2900,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -2914,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
+        <v>68</v>
+      </c>
+      <c r="H137" t="s">
         <v>69</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>70</v>
-      </c>
-      <c r="I137" t="s">
-        <v>71</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -2929,9 +2940,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2952,12 +2963,12 @@
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B139">
         <v>1.00057</v>
@@ -2972,12 +2983,12 @@
         <v>22</v>
       </c>
       <c r="K139" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B140">
         <v>6.7000000000000002E-3</v>
@@ -2992,18 +3003,18 @@
         <v>22</v>
       </c>
       <c r="K140" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B141">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -3012,18 +3023,18 @@
         <v>22</v>
       </c>
       <c r="K141" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>75</v>
       </c>
       <c r="B142" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D142" t="s">
         <v>30</v>
@@ -3032,12 +3043,12 @@
         <v>22</v>
       </c>
       <c r="K142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>78</v>
       </c>
       <c r="B143" s="4">
         <v>2.5999999999999998E-10</v>
@@ -3052,18 +3063,18 @@
         <v>22</v>
       </c>
       <c r="K143" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>80</v>
       </c>
       <c r="B144" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -3072,30 +3083,30 @@
         <v>22</v>
       </c>
       <c r="K144" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>82</v>
       </c>
       <c r="B145" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" t="s">
         <v>50</v>
       </c>
-      <c r="D145" t="s">
-        <v>51</v>
-      </c>
       <c r="F145" t="s">
         <v>22</v>
       </c>
       <c r="K145" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -3103,7 +3114,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -3115,29 +3126,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B147">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D147" t="s">
+        <v>84</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" t="s">
         <v>85</v>
       </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="K147" t="s">
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>87</v>
       </c>
       <c r="B148">
         <v>3.2599999999999997E-2</v>
@@ -3146,47 +3157,47 @@
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
       </c>
       <c r="K148" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B149" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" t="s">
         <v>50</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" t="s">
         <v>51</v>
       </c>
-      <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3202,15 +3213,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3218,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3226,12 +3237,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3251,13 +3262,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" t="s">
         <v>69</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>70</v>
-      </c>
-      <c r="I158" t="s">
-        <v>71</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3266,9 +3277,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -3289,12 +3300,12 @@
         <v>17</v>
       </c>
       <c r="K159" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160">
         <v>1.00057</v>
@@ -3309,12 +3320,12 @@
         <v>22</v>
       </c>
       <c r="K160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B161">
         <v>6.7000000000000002E-3</v>
@@ -3329,18 +3340,18 @@
         <v>22</v>
       </c>
       <c r="K161" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B162">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -3349,18 +3360,18 @@
         <v>22</v>
       </c>
       <c r="K162" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>75</v>
       </c>
       <c r="B163" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D163" t="s">
         <v>30</v>
@@ -3369,12 +3380,12 @@
         <v>22</v>
       </c>
       <c r="K163" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>78</v>
       </c>
       <c r="B164" s="4">
         <v>2.5999999999999998E-10</v>
@@ -3389,18 +3400,18 @@
         <v>22</v>
       </c>
       <c r="K164" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>80</v>
       </c>
       <c r="B165" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
@@ -3409,30 +3420,30 @@
         <v>22</v>
       </c>
       <c r="K165" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>82</v>
       </c>
       <c r="B166" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" t="s">
         <v>50</v>
       </c>
-      <c r="D166" t="s">
-        <v>51</v>
-      </c>
       <c r="F166" t="s">
         <v>22</v>
       </c>
       <c r="K166" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3451,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
@@ -3452,29 +3463,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B168">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D168" t="s">
+        <v>84</v>
+      </c>
+      <c r="F168" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" t="s">
         <v>85</v>
       </c>
-      <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="K168" t="s">
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>87</v>
       </c>
       <c r="B169">
         <v>3.2599999999999997E-2</v>
@@ -3483,50 +3494,50 @@
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
       </c>
       <c r="K169" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B170" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" t="s">
         <v>50</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" t="s">
         <v>51</v>
       </c>
-      <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="K170" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3534,15 +3545,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -3566,28 +3577,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>27</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -3616,9 +3627,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -3634,15 +3645,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H183" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B184" s="3">
         <v>2.3730000000000002</v>
@@ -3657,15 +3668,15 @@
         <v>22</v>
       </c>
       <c r="G184" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H184" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B185" s="3">
         <v>0.11</v>
@@ -3680,15 +3691,15 @@
         <v>19</v>
       </c>
       <c r="G185" t="s">
+        <v>59</v>
+      </c>
+      <c r="I185" t="s">
         <v>60</v>
       </c>
-      <c r="I185" t="s">
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>62</v>
       </c>
       <c r="B186" s="3">
         <f>18.4/1000*B184</f>
@@ -3704,15 +3715,15 @@
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H186" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>119</v>
+      <c r="A187" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B187" s="3">
         <f>0.01*B184</f>
@@ -3728,27 +3739,27 @@
         <v>22</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I187" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -3756,15 +3767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -3788,28 +3799,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>27</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>12</v>
       </c>
@@ -3838,9 +3849,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -3856,15 +3867,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H199" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B200" s="3">
         <v>1.93</v>
@@ -3879,15 +3890,15 @@
         <v>22</v>
       </c>
       <c r="G200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H200" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B201" s="3">
         <v>0.5</v>
@@ -3896,21 +3907,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
       </c>
       <c r="G201" t="s">
+        <v>59</v>
+      </c>
+      <c r="I201" t="s">
         <v>60</v>
       </c>
-      <c r="I201" t="s">
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>62</v>
       </c>
       <c r="B202" s="3">
         <f>18.4/1000*B200</f>
@@ -3926,15 +3937,15 @@
         <v>22</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H202" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>119</v>
+      <c r="A203" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B203" s="3">
         <f>0.01*B200</f>
@@ -3950,27 +3961,27 @@
         <v>22</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I203" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3978,15 +3989,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4010,28 +4021,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>27</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>12</v>
       </c>
@@ -4060,9 +4071,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4078,15 +4089,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H215" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B216" s="3">
         <v>2.4510000000000001</v>
@@ -4101,15 +4112,15 @@
         <v>22</v>
       </c>
       <c r="G216" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H216" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B217" s="3">
         <v>0.2</v>
@@ -4124,15 +4135,15 @@
         <v>19</v>
       </c>
       <c r="G217" t="s">
+        <v>59</v>
+      </c>
+      <c r="I217" t="s">
         <v>60</v>
       </c>
-      <c r="I217" t="s">
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>62</v>
       </c>
       <c r="B218" s="3">
         <f>18.4/1000*B216</f>
@@ -4148,15 +4159,15 @@
         <v>22</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H218" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>119</v>
+      <c r="A219" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B219" s="3">
         <f>0.01*B216</f>
@@ -4172,27 +4183,27 @@
         <v>22</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I219" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4200,15 +4211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4224,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4232,28 +4243,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>27</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>12</v>
       </c>
@@ -4282,9 +4293,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4300,15 +4311,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H231" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B232" s="3">
         <v>2.57</v>
@@ -4323,15 +4334,15 @@
         <v>22</v>
       </c>
       <c r="G232" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H232" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B233" s="3">
         <v>0.36</v>
@@ -4346,15 +4357,15 @@
         <v>19</v>
       </c>
       <c r="G233" t="s">
+        <v>59</v>
+      </c>
+      <c r="I233" t="s">
         <v>60</v>
       </c>
-      <c r="I233" t="s">
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>62</v>
       </c>
       <c r="B234" s="3">
         <f>18.4/1000*B232</f>
@@ -4370,15 +4381,15 @@
         <v>22</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H234" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>119</v>
+      <c r="A235" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B235" s="3">
         <f>0.01*B232</f>
@@ -4394,30 +4405,30 @@
         <v>22</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I235" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4425,15 +4436,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4441,7 +4452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -4457,28 +4468,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>27</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>12</v>
       </c>
@@ -4507,9 +4518,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4525,15 +4536,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H248" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B249" s="3">
         <v>2.371</v>
@@ -4548,15 +4559,15 @@
         <v>22</v>
       </c>
       <c r="G249" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H249" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B250" s="3">
         <v>0.11</v>
@@ -4571,15 +4582,15 @@
         <v>19</v>
       </c>
       <c r="G250" t="s">
+        <v>59</v>
+      </c>
+      <c r="I250" t="s">
         <v>60</v>
       </c>
-      <c r="I250" t="s">
+    </row>
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>62</v>
       </c>
       <c r="B251" s="3">
         <f>18.4/1000*B249</f>
@@ -4595,15 +4606,15 @@
         <v>22</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H251" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
-        <v>119</v>
+      <c r="A252" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B252" s="3">
         <f>0.01*B249</f>
@@ -4619,27 +4630,27 @@
         <v>22</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
-      </c>
-      <c r="H252" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I252" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4647,15 +4658,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -4679,28 +4690,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>27</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>12</v>
       </c>
@@ -4729,9 +4740,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -4747,15 +4758,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H264" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B265" s="3">
         <v>4.5599999999999996</v>
@@ -4770,15 +4781,15 @@
         <v>22</v>
       </c>
       <c r="G265" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H265" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B266" s="3">
         <v>3.11</v>
@@ -4793,15 +4804,15 @@
         <v>19</v>
       </c>
       <c r="G266" t="s">
+        <v>59</v>
+      </c>
+      <c r="I266" t="s">
         <v>60</v>
       </c>
-      <c r="I266" t="s">
+    </row>
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>62</v>
       </c>
       <c r="B267" s="3">
         <f>18.4/1000*B265</f>
@@ -4817,15 +4828,15 @@
         <v>22</v>
       </c>
       <c r="G267" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H267" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>119</v>
+      <c r="A268" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B268" s="3">
         <f>0.01*B265</f>
@@ -4841,30 +4852,30 @@
         <v>22</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
-      </c>
-      <c r="H268" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I268" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -4872,15 +4883,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -4896,7 +4907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -4904,28 +4915,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>27</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>12</v>
       </c>
@@ -4954,9 +4965,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -4972,15 +4983,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H281" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B282" s="3">
         <v>2.5350000000000001</v>
@@ -4995,15 +5006,15 @@
         <v>22</v>
       </c>
       <c r="G282" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H282" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B283" s="3">
         <v>0.46</v>
@@ -5018,15 +5029,15 @@
         <v>19</v>
       </c>
       <c r="G283" t="s">
+        <v>59</v>
+      </c>
+      <c r="I283" t="s">
         <v>60</v>
       </c>
-      <c r="I283" t="s">
+    </row>
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>62</v>
       </c>
       <c r="B284" s="3">
         <f>18.4/1000*B282</f>
@@ -5042,15 +5053,15 @@
         <v>22</v>
       </c>
       <c r="G284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H284" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>119</v>
+      <c r="A285" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B285" s="3">
         <f>0.01*B282</f>
@@ -5066,27 +5077,27 @@
         <v>22</v>
       </c>
       <c r="G285" t="s">
-        <v>40</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I285" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5094,15 +5105,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5110,7 +5121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5118,7 +5129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5126,28 +5137,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>27</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>12</v>
       </c>
@@ -5176,9 +5187,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5194,15 +5205,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H297" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B298" s="3">
         <v>1.77</v>
@@ -5217,15 +5228,15 @@
         <v>22</v>
       </c>
       <c r="G298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H298" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B299" s="3">
         <v>0.57999999999999996</v>
@@ -5234,21 +5245,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F299" t="s">
         <v>19</v>
       </c>
       <c r="G299" t="s">
+        <v>59</v>
+      </c>
+      <c r="I299" t="s">
         <v>60</v>
       </c>
-      <c r="I299" t="s">
+    </row>
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>62</v>
       </c>
       <c r="B300" s="3">
         <f>18.4/1000*B298</f>
@@ -5264,15 +5275,15 @@
         <v>22</v>
       </c>
       <c r="G300" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H300" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
-        <v>119</v>
+      <c r="A301" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B301" s="3">
         <f>0.01*B298</f>
@@ -5288,27 +5299,27 @@
         <v>22</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
-      </c>
-      <c r="H301" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="I301" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5316,7 +5327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5324,15 +5335,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5340,7 +5351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -5356,28 +5367,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B311">
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5403,9 +5414,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5423,10 +5434,10 @@
         <v>17</v>
       </c>
       <c r="H314" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>18</v>
       </c>
@@ -5444,12 +5455,12 @@
         <v>19</v>
       </c>
       <c r="G315" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -5465,12 +5476,12 @@
         <v>19</v>
       </c>
       <c r="G316" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -5480,16 +5491,16 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
       </c>
       <c r="G317" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -5498,7 +5509,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C318" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D318" t="s">
         <v>10</v>
@@ -5510,7 +5521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -5531,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -5551,7 +5562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>31</v>
       </c>
@@ -5571,7 +5582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -5592,15 +5603,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5608,7 +5620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -5616,15 +5628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>6</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -5632,7 +5644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -5640,7 +5652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -5648,36 +5660,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
       <c r="B331" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B332">
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -5703,9 +5715,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -5723,10 +5735,10 @@
         <v>17</v>
       </c>
       <c r="H336" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>18</v>
       </c>
@@ -5744,12 +5756,12 @@
         <v>19</v>
       </c>
       <c r="G337" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -5765,12 +5777,12 @@
         <v>19</v>
       </c>
       <c r="G338" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -5780,16 +5792,16 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F339" t="s">
         <v>19</v>
       </c>
       <c r="G339" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -5798,7 +5810,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C340" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
@@ -5810,7 +5822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -5831,7 +5843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>28</v>
       </c>
@@ -5851,7 +5863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>32</v>
       </c>
@@ -5872,15 +5884,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="345" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -5888,7 +5901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -5896,15 +5909,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>6</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -5920,7 +5933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -5928,36 +5941,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B353">
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -5983,9 +5996,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -6003,10 +6016,10 @@
         <v>17</v>
       </c>
       <c r="H357" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>18</v>
       </c>
@@ -6024,12 +6037,12 @@
         <v>19</v>
       </c>
       <c r="G358" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6045,12 +6058,12 @@
         <v>19</v>
       </c>
       <c r="G359" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6060,16 +6073,16 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F360" t="s">
         <v>19</v>
       </c>
       <c r="G360" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>28</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>32</v>
       </c>
@@ -6132,15 +6145,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6148,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6156,15 +6170,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6172,7 +6186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6180,7 +6194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -6188,20 +6202,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6227,9 +6241,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -6247,10 +6261,10 @@
         <v>17</v>
       </c>
       <c r="H375" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>24</v>
       </c>
@@ -6270,7 +6284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -6294,8 +6308,8 @@
       </c>
     </row>
     <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A378" s="2" t="s">
-        <v>119</v>
+      <c r="A378" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6309,13 +6323,13 @@
       <c r="F378" t="s">
         <v>22</v>
       </c>
-      <c r="H378" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H378" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B379">
         <v>1.37</v>
@@ -6330,12 +6344,12 @@
         <v>22</v>
       </c>
       <c r="H379" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B380" s="4">
         <f>156000*0.24/(1546000*365*3)</f>
@@ -6351,15 +6365,15 @@
         <v>22</v>
       </c>
       <c r="G380" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H380" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B381" s="4">
         <f>156000*0.64/(1546000*365*3)</f>
@@ -6375,63 +6389,63 @@
         <v>22</v>
       </c>
       <c r="G381" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H381" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>43</v>
       </c>
       <c r="B382" s="4">
         <f>156000*0.12/(1546000*365*3)</f>
         <v>1.1058143862198514E-5</v>
       </c>
       <c r="C382" t="s">
+        <v>43</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382" t="s">
+        <v>22</v>
+      </c>
+      <c r="G382" t="s">
+        <v>47</v>
+      </c>
+      <c r="H382" t="s">
         <v>44</v>
       </c>
-      <c r="D382" t="s">
-        <v>10</v>
-      </c>
-      <c r="F382" t="s">
-        <v>22</v>
-      </c>
-      <c r="G382" t="s">
+    </row>
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>48</v>
-      </c>
-      <c r="H382" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>49</v>
       </c>
       <c r="B383" s="4">
         <f>0.568*-1/1000</f>
         <v>-5.6799999999999993E-4</v>
       </c>
       <c r="C383" t="s">
+        <v>49</v>
+      </c>
+      <c r="D383" t="s">
         <v>50</v>
       </c>
-      <c r="D383" t="s">
+      <c r="F383" t="s">
+        <v>22</v>
+      </c>
+      <c r="G383" t="s">
+        <v>52</v>
+      </c>
+      <c r="H383" t="s">
         <v>51</v>
       </c>
-      <c r="F383" t="s">
-        <v>22</v>
-      </c>
-      <c r="G383" t="s">
-        <v>53</v>
-      </c>
-      <c r="H383" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -6446,20 +6460,27 @@
         <v>22</v>
       </c>
       <c r="G384" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H384" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -6470,44 +6491,51 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -6518,44 +6546,51 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B419" s="3"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B420" s="3"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B422" s="3"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" s="3"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -6566,44 +6601,51 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B437" s="3"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B440" s="3"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" s="3"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B442" s="3"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B443" s="3"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B444" s="3"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -6614,34 +6656,41 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B456" s="3"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B457" s="3"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B458" s="3"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B459" s="3"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B460" s="3"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B461" s="3"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B462" s="3"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B463" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K463" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 25 bar, from electrolysis"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B2B6E-1AE2-D644-8037-858972D21218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130FED9-3DF7-0543-9616-A713FAB19E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28340" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$463</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,9 +134,6 @@
     <t>megajoule</t>
   </si>
   <si>
-    <t>CO2 storage/hard coal, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>market for monoethanolamine</t>
   </si>
   <si>
@@ -438,6 +435,9 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 200 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -803,11 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G466" sqref="G466"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="H321" sqref="H321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -826,16 +825,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -843,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -851,15 +849,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -867,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -875,12 +873,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -900,13 +898,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -915,9 +913,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -938,12 +936,12 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1.00057</v>
@@ -958,12 +956,12 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>6.7000000000000002E-3</v>
@@ -978,18 +976,18 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -998,18 +996,18 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>74</v>
       </c>
       <c r="B15" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1018,12 +1016,12 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>77</v>
       </c>
       <c r="B16" s="4">
         <v>2.5999999999999998E-10</v>
@@ -1038,18 +1036,18 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>79</v>
       </c>
       <c r="B17" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1058,30 +1056,30 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>81</v>
       </c>
       <c r="B18" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1101,29 +1099,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>86</v>
       </c>
       <c r="B21">
         <v>3.2599999999999997E-2</v>
@@ -1132,47 +1130,47 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1188,15 +1186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1212,12 +1210,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1237,13 +1235,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
         <v>68</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>69</v>
-      </c>
-      <c r="I31" t="s">
-        <v>70</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1252,9 +1250,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1275,12 +1273,12 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>1.00057</v>
@@ -1295,12 +1293,12 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>6.7000000000000002E-3</v>
@@ -1315,18 +1313,18 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1335,18 +1333,18 @@
         <v>22</v>
       </c>
       <c r="K35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
       </c>
       <c r="B36" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
@@ -1355,12 +1353,12 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>77</v>
       </c>
       <c r="B37" s="4">
         <v>2.5999999999999998E-10</v>
@@ -1375,18 +1373,18 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>79</v>
       </c>
       <c r="B38" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1395,30 +1393,30 @@
         <v>22</v>
       </c>
       <c r="K38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>81</v>
       </c>
       <c r="B39" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
         <v>49</v>
       </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1424,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1438,29 +1436,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
         <v>84</v>
       </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>86</v>
       </c>
       <c r="B42">
         <v>3.2599999999999997E-2</v>
@@ -1469,47 +1467,47 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
         <v>50</v>
       </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1525,15 +1523,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1549,12 +1547,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1574,13 +1572,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" t="s">
         <v>68</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>69</v>
-      </c>
-      <c r="I52" t="s">
-        <v>70</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -1589,9 +1587,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1612,12 +1610,12 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54">
         <v>1.00057</v>
@@ -1632,12 +1630,12 @@
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>6.7000000000000002E-3</v>
@@ -1652,18 +1650,18 @@
         <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1672,18 +1670,18 @@
         <v>22</v>
       </c>
       <c r="K56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>74</v>
       </c>
       <c r="B57" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -1692,12 +1690,12 @@
         <v>22</v>
       </c>
       <c r="K57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>77</v>
       </c>
       <c r="B58" s="4">
         <v>2.5999999999999998E-10</v>
@@ -1712,18 +1710,18 @@
         <v>22</v>
       </c>
       <c r="K58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>79</v>
       </c>
       <c r="B59" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -1732,30 +1730,30 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>81</v>
       </c>
       <c r="B60" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
         <v>49</v>
       </c>
-      <c r="D60" t="s">
-        <v>50</v>
-      </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1775,29 +1773,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
         <v>84</v>
       </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" t="s">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>86</v>
       </c>
       <c r="B63">
         <v>3.2599999999999997E-2</v>
@@ -1806,47 +1804,47 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" t="s">
         <v>49</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
         <v>50</v>
       </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1862,15 +1860,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1886,12 +1884,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -1911,13 +1909,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" t="s">
         <v>68</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>69</v>
-      </c>
-      <c r="I73" t="s">
-        <v>70</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -1926,9 +1924,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1949,12 +1947,12 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75">
         <v>1.00057</v>
@@ -1969,12 +1967,12 @@
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76">
         <v>6.7000000000000002E-3</v>
@@ -1989,18 +1987,18 @@
         <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -2009,18 +2007,18 @@
         <v>22</v>
       </c>
       <c r="K77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>74</v>
       </c>
       <c r="B78" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
         <v>30</v>
@@ -2029,12 +2027,12 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>77</v>
       </c>
       <c r="B79" s="4">
         <v>2.5999999999999998E-10</v>
@@ -2049,18 +2047,18 @@
         <v>22</v>
       </c>
       <c r="K79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
       </c>
       <c r="B80" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -2069,30 +2067,30 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>81</v>
       </c>
       <c r="B81" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
         <v>49</v>
       </c>
-      <c r="D81" t="s">
-        <v>50</v>
-      </c>
       <c r="F81" t="s">
         <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2098,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -2112,29 +2110,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" t="s">
         <v>84</v>
       </c>
-      <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" t="s">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>86</v>
       </c>
       <c r="B84">
         <v>3.2599999999999997E-2</v>
@@ -2143,50 +2141,50 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" t="s">
         <v>49</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
         <v>50</v>
       </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2202,15 +2200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2226,12 +2224,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2251,13 +2249,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95" t="s">
         <v>68</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>69</v>
-      </c>
-      <c r="I95" t="s">
-        <v>70</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2266,9 +2264,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2289,12 +2287,12 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>1.00057</v>
@@ -2309,12 +2307,12 @@
         <v>22</v>
       </c>
       <c r="K97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98">
         <v>6.7000000000000002E-3</v>
@@ -2329,18 +2327,18 @@
         <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -2349,18 +2347,18 @@
         <v>22</v>
       </c>
       <c r="K99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>74</v>
       </c>
       <c r="B100" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
@@ -2369,12 +2367,12 @@
         <v>22</v>
       </c>
       <c r="K100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>77</v>
       </c>
       <c r="B101" s="4">
         <v>2.5999999999999998E-10</v>
@@ -2389,18 +2387,18 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>79</v>
       </c>
       <c r="B102" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -2409,30 +2407,30 @@
         <v>22</v>
       </c>
       <c r="K102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>81</v>
       </c>
       <c r="B103" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
         <v>49</v>
       </c>
-      <c r="D103" t="s">
-        <v>50</v>
-      </c>
       <c r="F103" t="s">
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -2452,29 +2450,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" t="s">
         <v>84</v>
       </c>
-      <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="K105" t="s">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>86</v>
       </c>
       <c r="B106">
         <v>3.2599999999999997E-2</v>
@@ -2483,47 +2481,47 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" t="s">
         <v>49</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" t="s">
         <v>50</v>
       </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2531,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2539,15 +2537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2563,12 +2561,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2588,13 +2586,13 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
+        <v>67</v>
+      </c>
+      <c r="H116" t="s">
         <v>68</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>69</v>
-      </c>
-      <c r="I116" t="s">
-        <v>70</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -2603,9 +2601,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2626,12 +2624,12 @@
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B118">
         <v>1.00057</v>
@@ -2646,12 +2644,12 @@
         <v>22</v>
       </c>
       <c r="K118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B119">
         <v>6.7000000000000002E-3</v>
@@ -2666,18 +2664,18 @@
         <v>22</v>
       </c>
       <c r="K119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B120">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -2686,18 +2684,18 @@
         <v>22</v>
       </c>
       <c r="K120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>74</v>
       </c>
       <c r="B121" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" t="s">
         <v>30</v>
@@ -2706,12 +2704,12 @@
         <v>22</v>
       </c>
       <c r="K121" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>77</v>
       </c>
       <c r="B122" s="4">
         <v>2.5999999999999998E-10</v>
@@ -2726,18 +2724,18 @@
         <v>22</v>
       </c>
       <c r="K122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>79</v>
       </c>
       <c r="B123" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -2746,30 +2744,30 @@
         <v>22</v>
       </c>
       <c r="K123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>81</v>
       </c>
       <c r="B124" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" t="s">
         <v>49</v>
       </c>
-      <c r="D124" t="s">
-        <v>50</v>
-      </c>
       <c r="F124" t="s">
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +2775,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -2789,29 +2787,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B126">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D126" t="s">
+        <v>83</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" t="s">
         <v>84</v>
       </c>
-      <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" t="s">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>86</v>
       </c>
       <c r="B127">
         <v>3.2599999999999997E-2</v>
@@ -2820,47 +2818,47 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s">
         <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B128" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" t="s">
         <v>49</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" t="s">
         <v>50</v>
       </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2868,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -2876,15 +2874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2900,12 +2898,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -2925,13 +2923,13 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
+        <v>67</v>
+      </c>
+      <c r="H137" t="s">
         <v>68</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>69</v>
-      </c>
-      <c r="I137" t="s">
-        <v>70</v>
       </c>
       <c r="J137" t="s">
         <v>15</v>
@@ -2940,9 +2938,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2963,12 +2961,12 @@
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B139">
         <v>1.00057</v>
@@ -2983,12 +2981,12 @@
         <v>22</v>
       </c>
       <c r="K139" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B140">
         <v>6.7000000000000002E-3</v>
@@ -3003,18 +3001,18 @@
         <v>22</v>
       </c>
       <c r="K140" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B141">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -3023,18 +3021,18 @@
         <v>22</v>
       </c>
       <c r="K141" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>74</v>
       </c>
       <c r="B142" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D142" t="s">
         <v>30</v>
@@ -3043,12 +3041,12 @@
         <v>22</v>
       </c>
       <c r="K142" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>77</v>
       </c>
       <c r="B143" s="4">
         <v>2.5999999999999998E-10</v>
@@ -3063,18 +3061,18 @@
         <v>22</v>
       </c>
       <c r="K143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>79</v>
       </c>
       <c r="B144" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -3083,30 +3081,30 @@
         <v>22</v>
       </c>
       <c r="K144" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>81</v>
       </c>
       <c r="B145" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" t="s">
         <v>49</v>
       </c>
-      <c r="D145" t="s">
-        <v>50</v>
-      </c>
       <c r="F145" t="s">
         <v>22</v>
       </c>
       <c r="K145" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -3114,7 +3112,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -3126,29 +3124,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" t="s">
+        <v>83</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" t="s">
         <v>84</v>
       </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="K147" t="s">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>86</v>
       </c>
       <c r="B148">
         <v>3.2599999999999997E-2</v>
@@ -3157,47 +3155,47 @@
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
       </c>
       <c r="K148" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B149" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" t="s">
         <v>49</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" t="s">
         <v>50</v>
       </c>
-      <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3213,15 +3211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3237,12 +3235,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3262,13 +3260,13 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H158" t="s">
         <v>68</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>69</v>
-      </c>
-      <c r="I158" t="s">
-        <v>70</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -3277,9 +3275,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -3300,12 +3298,12 @@
         <v>17</v>
       </c>
       <c r="K159" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B160">
         <v>1.00057</v>
@@ -3320,12 +3318,12 @@
         <v>22</v>
       </c>
       <c r="K160" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B161">
         <v>6.7000000000000002E-3</v>
@@ -3340,18 +3338,18 @@
         <v>22</v>
       </c>
       <c r="K161" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B162">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -3360,18 +3358,18 @@
         <v>22</v>
       </c>
       <c r="K162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>74</v>
       </c>
       <c r="B163" s="4">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D163" t="s">
         <v>30</v>
@@ -3380,12 +3378,12 @@
         <v>22</v>
       </c>
       <c r="K163" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>77</v>
       </c>
       <c r="B164" s="4">
         <v>2.5999999999999998E-10</v>
@@ -3400,18 +3398,18 @@
         <v>22</v>
       </c>
       <c r="K164" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>79</v>
       </c>
       <c r="B165" s="4">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
@@ -3420,30 +3418,30 @@
         <v>22</v>
       </c>
       <c r="K165" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>81</v>
       </c>
       <c r="B166" s="4">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" t="s">
         <v>49</v>
       </c>
-      <c r="D166" t="s">
-        <v>50</v>
-      </c>
       <c r="F166" t="s">
         <v>22</v>
       </c>
       <c r="K166" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -3451,7 +3449,7 @@
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
@@ -3463,29 +3461,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B168">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D168" t="s">
+        <v>83</v>
+      </c>
+      <c r="F168" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" t="s">
         <v>84</v>
       </c>
-      <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="K168" t="s">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>86</v>
       </c>
       <c r="B169">
         <v>3.2599999999999997E-2</v>
@@ -3494,50 +3492,50 @@
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
       </c>
       <c r="K169" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B170" s="4">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" t="s">
         <v>49</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" t="s">
         <v>50</v>
       </c>
-      <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="K170" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3545,15 +3543,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3561,7 +3559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -3577,28 +3575,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>27</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -3627,9 +3625,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -3645,15 +3643,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H183" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B184" s="3">
         <v>2.3730000000000002</v>
@@ -3668,15 +3666,15 @@
         <v>22</v>
       </c>
       <c r="G184" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H184" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B185" s="3">
         <v>0.11</v>
@@ -3691,15 +3689,15 @@
         <v>19</v>
       </c>
       <c r="G185" t="s">
+        <v>58</v>
+      </c>
+      <c r="I185" t="s">
         <v>59</v>
       </c>
-      <c r="I185" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>61</v>
       </c>
       <c r="B186" s="3">
         <f>18.4/1000*B184</f>
@@ -3715,15 +3713,15 @@
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B187" s="3">
         <f>0.01*B184</f>
@@ -3739,27 +3737,27 @@
         <v>22</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I187" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -3767,15 +3765,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -3799,28 +3797,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>27</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>12</v>
       </c>
@@ -3849,9 +3847,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -3867,15 +3865,15 @@
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H199" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B200" s="3">
         <v>1.93</v>
@@ -3890,15 +3888,15 @@
         <v>22</v>
       </c>
       <c r="G200" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H200" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B201" s="3">
         <v>0.5</v>
@@ -3907,21 +3905,21 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
       </c>
       <c r="G201" t="s">
+        <v>58</v>
+      </c>
+      <c r="I201" t="s">
         <v>59</v>
       </c>
-      <c r="I201" t="s">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>61</v>
       </c>
       <c r="B202" s="3">
         <f>18.4/1000*B200</f>
@@ -3937,15 +3935,15 @@
         <v>22</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B203" s="3">
         <f>0.01*B200</f>
@@ -3961,27 +3959,27 @@
         <v>22</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I203" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3989,15 +3987,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4021,28 +4019,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>27</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,9 +4069,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4089,15 +4087,15 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H215" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B216" s="3">
         <v>2.4510000000000001</v>
@@ -4112,15 +4110,15 @@
         <v>22</v>
       </c>
       <c r="G216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H216" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B217" s="3">
         <v>0.2</v>
@@ -4135,15 +4133,15 @@
         <v>19</v>
       </c>
       <c r="G217" t="s">
+        <v>58</v>
+      </c>
+      <c r="I217" t="s">
         <v>59</v>
       </c>
-      <c r="I217" t="s">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>61</v>
       </c>
       <c r="B218" s="3">
         <f>18.4/1000*B216</f>
@@ -4159,15 +4157,15 @@
         <v>22</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H218" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B219" s="3">
         <f>0.01*B216</f>
@@ -4183,27 +4181,27 @@
         <v>22</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4211,15 +4209,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4227,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4243,28 +4241,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>27</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>12</v>
       </c>
@@ -4293,9 +4291,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4311,15 +4309,15 @@
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H231" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B232" s="3">
         <v>2.57</v>
@@ -4334,15 +4332,15 @@
         <v>22</v>
       </c>
       <c r="G232" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H232" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B233" s="3">
         <v>0.36</v>
@@ -4357,15 +4355,15 @@
         <v>19</v>
       </c>
       <c r="G233" t="s">
+        <v>58</v>
+      </c>
+      <c r="I233" t="s">
         <v>59</v>
       </c>
-      <c r="I233" t="s">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>61</v>
       </c>
       <c r="B234" s="3">
         <f>18.4/1000*B232</f>
@@ -4381,15 +4379,15 @@
         <v>22</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H234" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B235" s="3">
         <f>0.01*B232</f>
@@ -4405,30 +4403,30 @@
         <v>22</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I235" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4436,15 +4434,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -4460,7 +4458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -4468,28 +4466,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>27</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>12</v>
       </c>
@@ -4518,9 +4516,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4536,15 +4534,15 @@
         <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H248" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B249" s="3">
         <v>2.371</v>
@@ -4559,15 +4557,15 @@
         <v>22</v>
       </c>
       <c r="G249" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H249" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B250" s="3">
         <v>0.11</v>
@@ -4582,15 +4580,15 @@
         <v>19</v>
       </c>
       <c r="G250" t="s">
+        <v>58</v>
+      </c>
+      <c r="I250" t="s">
         <v>59</v>
       </c>
-      <c r="I250" t="s">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>61</v>
       </c>
       <c r="B251" s="3">
         <f>18.4/1000*B249</f>
@@ -4606,15 +4604,15 @@
         <v>22</v>
       </c>
       <c r="G251" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H251" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B252" s="3">
         <f>0.01*B249</f>
@@ -4630,27 +4628,27 @@
         <v>22</v>
       </c>
       <c r="G252" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I252" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4658,15 +4656,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4674,7 +4672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -4690,28 +4688,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>27</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>12</v>
       </c>
@@ -4740,9 +4738,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -4758,15 +4756,15 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H264" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B265" s="3">
         <v>4.5599999999999996</v>
@@ -4781,15 +4779,15 @@
         <v>22</v>
       </c>
       <c r="G265" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H265" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B266" s="3">
         <v>3.11</v>
@@ -4804,15 +4802,15 @@
         <v>19</v>
       </c>
       <c r="G266" t="s">
+        <v>58</v>
+      </c>
+      <c r="I266" t="s">
         <v>59</v>
       </c>
-      <c r="I266" t="s">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>61</v>
       </c>
       <c r="B267" s="3">
         <f>18.4/1000*B265</f>
@@ -4828,15 +4826,15 @@
         <v>22</v>
       </c>
       <c r="G267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H267" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B268" s="3">
         <f>0.01*B265</f>
@@ -4852,30 +4850,30 @@
         <v>22</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I268" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -4883,15 +4881,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4899,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -4907,7 +4905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -4915,28 +4913,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>27</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>12</v>
       </c>
@@ -4965,9 +4963,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -4983,15 +4981,15 @@
         <v>16</v>
       </c>
       <c r="G281" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H281" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B282" s="3">
         <v>2.5350000000000001</v>
@@ -5006,15 +5004,15 @@
         <v>22</v>
       </c>
       <c r="G282" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H282" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B283" s="3">
         <v>0.46</v>
@@ -5029,15 +5027,15 @@
         <v>19</v>
       </c>
       <c r="G283" t="s">
+        <v>58</v>
+      </c>
+      <c r="I283" t="s">
         <v>59</v>
       </c>
-      <c r="I283" t="s">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>61</v>
       </c>
       <c r="B284" s="3">
         <f>18.4/1000*B282</f>
@@ -5053,15 +5051,15 @@
         <v>22</v>
       </c>
       <c r="G284" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H284" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B285" s="3">
         <f>0.01*B282</f>
@@ -5077,27 +5075,27 @@
         <v>22</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I285" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5105,15 +5103,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5121,7 +5119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5129,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5137,28 +5135,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>27</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>12</v>
       </c>
@@ -5187,9 +5185,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5205,15 +5203,15 @@
         <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H297" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B298" s="3">
         <v>1.77</v>
@@ -5228,15 +5226,15 @@
         <v>22</v>
       </c>
       <c r="G298" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H298" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B299" s="3">
         <v>0.57999999999999996</v>
@@ -5245,21 +5243,21 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F299" t="s">
         <v>19</v>
       </c>
       <c r="G299" t="s">
+        <v>58</v>
+      </c>
+      <c r="I299" t="s">
         <v>59</v>
       </c>
-      <c r="I299" t="s">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>61</v>
       </c>
       <c r="B300" s="3">
         <f>18.4/1000*B298</f>
@@ -5275,15 +5273,15 @@
         <v>22</v>
       </c>
       <c r="G300" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H300" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B301" s="3">
         <f>0.01*B298</f>
@@ -5299,27 +5297,27 @@
         <v>22</v>
       </c>
       <c r="G301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I301" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5327,7 +5325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5335,15 +5333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5359,36 +5357,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>27</v>
       </c>
       <c r="B309" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B311">
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5414,9 +5412,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5434,10 +5432,10 @@
         <v>17</v>
       </c>
       <c r="H314" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>18</v>
       </c>
@@ -5455,12 +5453,12 @@
         <v>19</v>
       </c>
       <c r="G315" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B316">
         <f>B311*0.11</f>
@@ -5476,12 +5474,12 @@
         <v>19</v>
       </c>
       <c r="G316" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B317">
         <f>B311</f>
@@ -5491,16 +5489,16 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
       </c>
       <c r="G317" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -5509,7 +5507,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D318" t="s">
         <v>10</v>
@@ -5521,7 +5519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -5562,9 +5560,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -5579,40 +5577,39 @@
         <v>22</v>
       </c>
       <c r="H321" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>32</v>
       </c>
       <c r="B322">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
       <c r="C322" t="s">
+        <v>32</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" t="s">
+        <v>22</v>
+      </c>
+      <c r="H322" t="s">
         <v>33</v>
       </c>
-      <c r="D322" t="s">
-        <v>10</v>
-      </c>
-      <c r="F322" t="s">
-        <v>22</v>
-      </c>
-      <c r="H322" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5620,7 +5617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -5628,15 +5625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>6</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -5644,7 +5641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -5652,44 +5649,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>27</v>
       </c>
       <c r="B330" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
       <c r="B331" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B332">
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -5715,9 +5712,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -5735,10 +5732,10 @@
         <v>17</v>
       </c>
       <c r="H336" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>18</v>
       </c>
@@ -5756,12 +5753,12 @@
         <v>19</v>
       </c>
       <c r="G337" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B338">
         <f>B332*0.11</f>
@@ -5777,12 +5774,12 @@
         <v>19</v>
       </c>
       <c r="G338" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B339">
         <f>B332*B333</f>
@@ -5792,16 +5789,16 @@
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F339" t="s">
         <v>19</v>
       </c>
       <c r="G339" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="C340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
@@ -5822,7 +5819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -5843,7 +5840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>28</v>
       </c>
@@ -5863,37 +5860,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B343">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
       <c r="C343" t="s">
+        <v>32</v>
+      </c>
+      <c r="D343" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" t="s">
+        <v>22</v>
+      </c>
+      <c r="H343" t="s">
         <v>33</v>
       </c>
-      <c r="D343" t="s">
-        <v>10</v>
-      </c>
-      <c r="F343" t="s">
-        <v>22</v>
-      </c>
-      <c r="H343" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="345" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -5901,7 +5897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -5909,15 +5905,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>6</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -5925,7 +5921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -5933,44 +5929,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>27</v>
       </c>
       <c r="B351" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B353">
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -5996,9 +5992,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -6016,10 +6012,10 @@
         <v>17</v>
       </c>
       <c r="H357" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>18</v>
       </c>
@@ -6037,12 +6033,12 @@
         <v>19</v>
       </c>
       <c r="G358" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B359">
         <f>B353*0.11</f>
@@ -6058,12 +6054,12 @@
         <v>19</v>
       </c>
       <c r="G359" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B360">
         <f>B353*B354</f>
@@ -6073,16 +6069,16 @@
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F360" t="s">
         <v>19</v>
       </c>
       <c r="G360" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -6103,7 +6099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>28</v>
       </c>
@@ -6124,37 +6120,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B363">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
       <c r="C363" t="s">
+        <v>32</v>
+      </c>
+      <c r="D363" t="s">
+        <v>10</v>
+      </c>
+      <c r="F363" t="s">
+        <v>22</v>
+      </c>
+      <c r="H363" t="s">
         <v>33</v>
       </c>
-      <c r="D363" t="s">
-        <v>10</v>
-      </c>
-      <c r="F363" t="s">
-        <v>22</v>
-      </c>
-      <c r="H363" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="365" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6162,7 +6157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6170,15 +6165,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6194,28 +6189,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>27</v>
       </c>
       <c r="B371" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6241,9 +6236,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -6261,10 +6256,10 @@
         <v>17</v>
       </c>
       <c r="H375" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>24</v>
       </c>
@@ -6284,7 +6279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -6301,7 +6296,7 @@
         <v>22</v>
       </c>
       <c r="G377" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H377" t="s">
         <v>29</v>
@@ -6309,7 +6304,7 @@
     </row>
     <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6324,12 +6319,12 @@
         <v>22</v>
       </c>
       <c r="H378" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B379">
         <v>1.37</v>
@@ -6344,19 +6339,19 @@
         <v>22</v>
       </c>
       <c r="H379" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B380" s="4">
         <f>156000*0.24/(1546000*365*3)</f>
         <v>2.2116287724397028E-5</v>
       </c>
       <c r="C380" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D380" t="s">
         <v>10</v>
@@ -6365,22 +6360,22 @@
         <v>22</v>
       </c>
       <c r="G380" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H380" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B381" s="4">
         <f>156000*0.64/(1546000*365*3)</f>
         <v>5.8976767265058744E-5</v>
       </c>
       <c r="C381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D381" t="s">
         <v>10</v>
@@ -6389,63 +6384,63 @@
         <v>22</v>
       </c>
       <c r="G381" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H381" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>42</v>
       </c>
       <c r="B382" s="4">
         <f>156000*0.12/(1546000*365*3)</f>
         <v>1.1058143862198514E-5</v>
       </c>
       <c r="C382" t="s">
+        <v>42</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382" t="s">
+        <v>22</v>
+      </c>
+      <c r="G382" t="s">
+        <v>46</v>
+      </c>
+      <c r="H382" t="s">
         <v>43</v>
       </c>
-      <c r="D382" t="s">
-        <v>10</v>
-      </c>
-      <c r="F382" t="s">
-        <v>22</v>
-      </c>
-      <c r="G382" t="s">
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>47</v>
-      </c>
-      <c r="H382" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>48</v>
       </c>
       <c r="B383" s="4">
         <f>0.568*-1/1000</f>
         <v>-5.6799999999999993E-4</v>
       </c>
       <c r="C383" t="s">
+        <v>48</v>
+      </c>
+      <c r="D383" t="s">
         <v>49</v>
       </c>
-      <c r="D383" t="s">
+      <c r="F383" t="s">
+        <v>22</v>
+      </c>
+      <c r="G383" t="s">
+        <v>51</v>
+      </c>
+      <c r="H383" t="s">
         <v>50</v>
       </c>
-      <c r="F383" t="s">
-        <v>22</v>
-      </c>
-      <c r="G383" t="s">
-        <v>52</v>
-      </c>
-      <c r="H383" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B384">
         <v>12.456827894327896</v>
@@ -6460,27 +6455,20 @@
         <v>22</v>
       </c>
       <c r="G384" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H384" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -6491,51 +6479,44 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -6546,51 +6527,44 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B419" s="3"/>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B420" s="3"/>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B422" s="3"/>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B423" s="3"/>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -6601,51 +6575,44 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B437" s="3"/>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B440" s="3"/>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B441" s="3"/>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B442" s="3"/>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B443" s="3"/>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B444" s="3"/>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -6656,41 +6623,35 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B456" s="3"/>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B457" s="3"/>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B458" s="3"/>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B459" s="3"/>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B460" s="3"/>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B461" s="3"/>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B462" s="3"/>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B463" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K463" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 25 bar, from electrolysis"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K463" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
